--- a/DADOS_MEC/Dados_docentes_MEC.xlsx
+++ b/DADOS_MEC/Dados_docentes_MEC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danielarana/dev/excript/Map&amp;MEC/DADOS_MEC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{080C1274-6F16-2D4E-ACEF-E8179B40F78D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8559A802-E6F4-9E41-86A0-FEA0EB9B2CF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="980" yWindow="500" windowWidth="21840" windowHeight="13140" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="980" yWindow="500" windowWidth="21840" windowHeight="14460" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Orientações Gerais" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="96">
   <si>
     <t>Orientações:</t>
   </si>
@@ -387,6 +387,12 @@
   </si>
   <si>
     <t>% de docentes com, no mínimo, 9 produções nos últimos 3 anos</t>
+  </si>
+  <si>
+    <t>LOTAÇÃO</t>
+  </si>
+  <si>
+    <t>E-mail Institucional</t>
   </si>
 </sst>
 </file>
@@ -532,7 +538,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -760,13 +766,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -944,6 +963,8 @@
     <xf numFmtId="164" fontId="12" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="12" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -959,10 +980,13 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="6" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1396,8 +1420,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMK29"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView showGridLines="0" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1410,32 +1434,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="75" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
+      <c r="A1" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
     </row>
     <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
     </row>
     <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="76"/>
-      <c r="B3" s="76"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
+      <c r="A3" s="78"/>
+      <c r="B3" s="78"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
     </row>
     <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="76"/>
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
+      <c r="A4" s="78"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
     </row>
     <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
@@ -1634,98 +1658,98 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="77">
+      <c r="A19" s="79">
         <v>14</v>
       </c>
       <c r="B19" s="17" t="s">
         <v>43</v>
       </c>
       <c r="C19" s="18"/>
-      <c r="D19" s="78" t="s">
+      <c r="D19" s="80" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="77"/>
+      <c r="A20" s="79"/>
       <c r="B20" s="17" t="s">
         <v>45</v>
       </c>
       <c r="C20" s="18"/>
-      <c r="D20" s="78"/>
+      <c r="D20" s="80"/>
     </row>
     <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="77"/>
+      <c r="A21" s="79"/>
       <c r="B21" s="17" t="s">
         <v>46</v>
       </c>
       <c r="C21" s="18"/>
-      <c r="D21" s="78"/>
+      <c r="D21" s="80"/>
     </row>
     <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="77"/>
+      <c r="A22" s="79"/>
       <c r="B22" s="17" t="s">
         <v>47</v>
       </c>
       <c r="C22" s="18"/>
-      <c r="D22" s="78"/>
+      <c r="D22" s="80"/>
     </row>
     <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="77"/>
+      <c r="A23" s="79"/>
       <c r="B23" s="17" t="s">
         <v>48</v>
       </c>
       <c r="C23" s="18"/>
-      <c r="D23" s="78"/>
+      <c r="D23" s="80"/>
     </row>
     <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="77"/>
+      <c r="A24" s="79"/>
       <c r="B24" s="17" t="s">
         <v>49</v>
       </c>
       <c r="C24" s="18"/>
-      <c r="D24" s="78"/>
+      <c r="D24" s="80"/>
     </row>
     <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="77"/>
+      <c r="A25" s="79"/>
       <c r="B25" s="17" t="s">
         <v>50</v>
       </c>
       <c r="C25" s="18"/>
-      <c r="D25" s="78"/>
+      <c r="D25" s="80"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="79">
+      <c r="A26" s="81">
         <v>15</v>
       </c>
       <c r="B26" s="19" t="s">
         <v>51</v>
       </c>
       <c r="C26" s="16"/>
-      <c r="D26" s="78"/>
+      <c r="D26" s="80"/>
     </row>
     <row r="27" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="79"/>
+      <c r="A27" s="81"/>
       <c r="B27" s="19" t="s">
         <v>52</v>
       </c>
       <c r="C27" s="16"/>
-      <c r="D27" s="78"/>
+      <c r="D27" s="80"/>
     </row>
     <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="79"/>
+      <c r="A28" s="81"/>
       <c r="B28" s="19" t="s">
         <v>53</v>
       </c>
       <c r="C28" s="16"/>
-      <c r="D28" s="78"/>
+      <c r="D28" s="80"/>
     </row>
     <row r="29" spans="1:4" ht="28" x14ac:dyDescent="0.2">
-      <c r="A29" s="79"/>
+      <c r="A29" s="81"/>
       <c r="B29" s="19" t="s">
         <v>54</v>
       </c>
       <c r="C29" s="16"/>
-      <c r="D29" s="78"/>
+      <c r="D29" s="80"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1745,229 +1769,245 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Y65"/>
+  <dimension ref="A1:AB65"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="J4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="K59" sqref="K4:X59"/>
+      <selection pane="bottomRight" activeCell="P2" sqref="P2:P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="52.33203125" customWidth="1"/>
-    <col min="2" max="2" width="18.1640625" style="64" customWidth="1"/>
-    <col min="3" max="3" width="19.5" style="31" customWidth="1"/>
-    <col min="4" max="4" width="30.5" style="64" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5" customWidth="1"/>
-    <col min="6" max="7" width="16.5" customWidth="1"/>
-    <col min="8" max="8" width="15.5" customWidth="1"/>
-    <col min="9" max="10" width="14.33203125" customWidth="1"/>
-    <col min="11" max="11" width="14.83203125" customWidth="1"/>
-    <col min="12" max="12" width="14.6640625" customWidth="1"/>
-    <col min="13" max="13" width="15.83203125" customWidth="1"/>
-    <col min="14" max="14" width="10.5" customWidth="1"/>
-    <col min="15" max="24" width="11.1640625" customWidth="1"/>
-    <col min="25" max="25" width="10.33203125" customWidth="1"/>
-    <col min="26" max="1005" width="8.83203125" customWidth="1"/>
-    <col min="1006" max="1015" width="11.5"/>
+    <col min="1" max="2" width="52.33203125" customWidth="1"/>
+    <col min="3" max="3" width="18.1640625" style="64" customWidth="1"/>
+    <col min="4" max="4" width="19.5" style="31" customWidth="1"/>
+    <col min="5" max="5" width="30.5" style="64" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.5" style="64" customWidth="1"/>
+    <col min="7" max="7" width="14.5" customWidth="1"/>
+    <col min="8" max="9" width="16.5" customWidth="1"/>
+    <col min="10" max="10" width="15.5" customWidth="1"/>
+    <col min="11" max="12" width="14.33203125" customWidth="1"/>
+    <col min="13" max="13" width="14.83203125" customWidth="1"/>
+    <col min="14" max="14" width="14.6640625" customWidth="1"/>
+    <col min="15" max="16" width="15.83203125" customWidth="1"/>
+    <col min="17" max="17" width="10.5" customWidth="1"/>
+    <col min="18" max="27" width="11.1640625" customWidth="1"/>
+    <col min="28" max="28" width="10.33203125" customWidth="1"/>
+    <col min="29" max="1008" width="8.83203125" customWidth="1"/>
+    <col min="1009" max="1018" width="11.5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:28" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="20">
         <v>1</v>
       </c>
-      <c r="B1" s="61">
+      <c r="B1" s="21"/>
+      <c r="C1" s="61">
         <v>2</v>
       </c>
-      <c r="C1" s="21">
+      <c r="D1" s="21">
         <v>3</v>
       </c>
-      <c r="D1" s="61">
+      <c r="E1" s="61">
         <v>4</v>
       </c>
-      <c r="E1" s="22">
+      <c r="F1" s="61"/>
+      <c r="G1" s="22">
         <v>5</v>
       </c>
-      <c r="F1" s="1">
+      <c r="H1" s="1">
         <v>6</v>
       </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1">
+      <c r="I1" s="1"/>
+      <c r="J1" s="1">
         <v>7</v>
       </c>
-      <c r="I1" s="1">
+      <c r="K1" s="1">
         <v>9</v>
       </c>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1">
+      <c r="L1" s="1"/>
+      <c r="M1" s="1">
         <v>10</v>
       </c>
-      <c r="L1" s="1">
+      <c r="N1" s="1">
         <v>11</v>
       </c>
-      <c r="M1" s="1">
+      <c r="O1" s="1">
         <v>12</v>
       </c>
-      <c r="N1" s="86">
+      <c r="P1" s="1"/>
+      <c r="Q1" s="89">
         <v>14</v>
       </c>
-      <c r="O1" s="86"/>
-      <c r="P1" s="86"/>
-      <c r="Q1" s="86"/>
-      <c r="R1" s="86"/>
-      <c r="S1" s="86"/>
-      <c r="T1" s="86"/>
-      <c r="U1" s="87">
+      <c r="R1" s="89"/>
+      <c r="S1" s="89"/>
+      <c r="T1" s="89"/>
+      <c r="U1" s="89"/>
+      <c r="V1" s="89"/>
+      <c r="W1" s="89"/>
+      <c r="X1" s="90">
         <v>15</v>
       </c>
-      <c r="V1" s="87"/>
-      <c r="W1" s="87"/>
-      <c r="X1" s="87"/>
-      <c r="Y1" s="23"/>
-    </row>
-    <row r="2" spans="1:25" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="Y1" s="90"/>
+      <c r="Z1" s="90"/>
+      <c r="AA1" s="90"/>
+      <c r="AB1" s="23"/>
+    </row>
+    <row r="2" spans="1:28" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="91" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="90" t="s">
+      <c r="B2" s="82" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" s="93" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="80" t="s">
+      <c r="D2" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="90" t="s">
+      <c r="E2" s="93" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="80" t="s">
+      <c r="F2" s="82" t="s">
+        <v>95</v>
+      </c>
+      <c r="G2" s="84" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="80" t="s">
+      <c r="H2" s="84" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="93" t="s">
+      <c r="I2" s="96" t="s">
         <v>56</v>
       </c>
-      <c r="H2" s="80" t="s">
+      <c r="J2" s="84" t="s">
         <v>57</v>
       </c>
-      <c r="I2" s="80" t="s">
+      <c r="K2" s="84" t="s">
         <v>58</v>
       </c>
-      <c r="J2" s="93" t="s">
+      <c r="L2" s="96" t="s">
         <v>59</v>
       </c>
-      <c r="K2" s="80" t="s">
+      <c r="M2" s="84" t="s">
         <v>60</v>
       </c>
-      <c r="L2" s="92" t="s">
+      <c r="N2" s="95" t="s">
         <v>61</v>
       </c>
-      <c r="M2" s="80" t="s">
+      <c r="O2" s="84" t="s">
         <v>62</v>
       </c>
-      <c r="N2" s="82" t="s">
+      <c r="P2" s="82" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q2" s="85" t="s">
         <v>63</v>
       </c>
-      <c r="O2" s="82"/>
-      <c r="P2" s="82"/>
-      <c r="Q2" s="82"/>
-      <c r="R2" s="82"/>
-      <c r="S2" s="82"/>
-      <c r="T2" s="82"/>
-      <c r="U2" s="83" t="s">
+      <c r="R2" s="85"/>
+      <c r="S2" s="85"/>
+      <c r="T2" s="85"/>
+      <c r="U2" s="85"/>
+      <c r="V2" s="85"/>
+      <c r="W2" s="85"/>
+      <c r="X2" s="86" t="s">
         <v>64</v>
       </c>
-      <c r="V2" s="83"/>
-      <c r="W2" s="83"/>
-      <c r="X2" s="83"/>
-      <c r="Y2" s="84" t="s">
+      <c r="Y2" s="86"/>
+      <c r="Z2" s="86"/>
+      <c r="AA2" s="86"/>
+      <c r="AB2" s="87" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:25" ht="120" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="89"/>
-      <c r="B3" s="91"/>
-      <c r="C3" s="81"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="81"/>
-      <c r="F3" s="81"/>
-      <c r="G3" s="94"/>
-      <c r="H3" s="81"/>
-      <c r="I3" s="81"/>
-      <c r="J3" s="94"/>
-      <c r="K3" s="81"/>
-      <c r="L3" s="81"/>
-      <c r="M3" s="81"/>
-      <c r="N3" s="66" t="s">
+    <row r="3" spans="1:28" ht="120" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="92"/>
+      <c r="B3" s="83"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="94"/>
+      <c r="F3" s="83"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="82"/>
+      <c r="I3" s="97"/>
+      <c r="J3" s="82"/>
+      <c r="K3" s="82"/>
+      <c r="L3" s="97"/>
+      <c r="M3" s="82"/>
+      <c r="N3" s="82"/>
+      <c r="O3" s="82"/>
+      <c r="P3" s="83"/>
+      <c r="Q3" s="66" t="s">
         <v>66</v>
       </c>
-      <c r="O3" s="66" t="s">
+      <c r="R3" s="66" t="s">
         <v>67</v>
       </c>
-      <c r="P3" s="66" t="s">
+      <c r="S3" s="66" t="s">
         <v>68</v>
       </c>
-      <c r="Q3" s="66" t="s">
+      <c r="T3" s="66" t="s">
         <v>69</v>
       </c>
-      <c r="R3" s="66" t="s">
+      <c r="U3" s="66" t="s">
         <v>70</v>
       </c>
-      <c r="S3" s="66" t="s">
+      <c r="V3" s="66" t="s">
         <v>71</v>
       </c>
-      <c r="T3" s="66" t="s">
+      <c r="W3" s="66" t="s">
         <v>72</v>
       </c>
-      <c r="U3" s="66" t="s">
+      <c r="X3" s="66" t="s">
         <v>73</v>
       </c>
-      <c r="V3" s="66" t="s">
+      <c r="Y3" s="66" t="s">
         <v>74</v>
       </c>
-      <c r="W3" s="66" t="s">
+      <c r="Z3" s="66" t="s">
         <v>75</v>
       </c>
-      <c r="X3" s="67" t="s">
+      <c r="AA3" s="67" t="s">
         <v>76</v>
       </c>
-      <c r="Y3" s="85"/>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AB3" s="88"/>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A4" s="38"/>
-      <c r="B4" s="62" t="s">
-        <v>77</v>
-      </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="F4" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="G4" s="27" t="e">
-        <f t="array" ref="G4">_xlfn.IFS(F4="Estatutário","Estatutário",F4="Outro","Outro",F4="Substituto","Outro",F4="Visitante","Outro")</f>
-        <v>#N/A</v>
+      <c r="B4" s="38"/>
+      <c r="C4" s="62" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" s="30"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="26" t="s">
+        <v>77</v>
       </c>
       <c r="H4" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="I4" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="J4" s="28" t="e">
-        <f t="shared" ref="J4:J35" ca="1" si="0">DATEDIF(I4,TODAY(),"M")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29"/>
+      <c r="I4" s="27" t="e">
+        <f t="array" ref="I4">_xlfn.IFS(H4="Estatutário","Estatutário",H4="Outro","Outro",H4="Substituto","Outro",H4="Visitante","Outro")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J4" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="K4" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="L4" s="28" t="e">
+        <f t="shared" ref="L4:L35" ca="1" si="0">DATEDIF(K4,TODAY(),"M")</f>
+        <v>#VALUE!</v>
+      </c>
       <c r="M4" s="29"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
-      <c r="P4" s="28"/>
+      <c r="N4" s="29"/>
+      <c r="O4" s="29"/>
+      <c r="P4" s="29"/>
       <c r="Q4" s="28"/>
       <c r="R4" s="28"/>
       <c r="S4" s="28"/>
@@ -1976,44 +2016,47 @@
       <c r="V4" s="28"/>
       <c r="W4" s="28"/>
       <c r="X4" s="28"/>
-      <c r="Y4" s="30">
-        <f t="shared" ref="Y4:Y35" si="1">SUM(N4:X4)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y4" s="28"/>
+      <c r="Z4" s="28"/>
+      <c r="AA4" s="28"/>
+      <c r="AB4" s="30">
+        <f t="shared" ref="AB4:AB35" si="1">SUM(Q4:AA4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="40"/>
-      <c r="B5" s="62" t="s">
-        <v>77</v>
-      </c>
-      <c r="C5" s="69"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="F5" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="G5" s="47" t="e">
-        <f t="array" ref="G5">_xlfn.IFS(F5="Estatutário","Estatutário",F5="Outro","Outro",F5="Substituto","Outro",F5="Visitante","Outro")</f>
-        <v>#N/A</v>
+      <c r="B5" s="40"/>
+      <c r="C5" s="62" t="s">
+        <v>77</v>
+      </c>
+      <c r="D5" s="69"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="26" t="s">
+        <v>77</v>
       </c>
       <c r="H5" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="I5" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="J5" s="28" t="e">
-        <f t="shared" ref="J5" ca="1" si="2">DATEDIF(I5,TODAY(),"M")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K5" s="48"/>
-      <c r="L5" s="48"/>
+      <c r="I5" s="47" t="e">
+        <f t="array" ref="I5">_xlfn.IFS(H5="Estatutário","Estatutário",H5="Outro","Outro",H5="Substituto","Outro",H5="Visitante","Outro")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J5" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="K5" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="L5" s="28" t="e">
+        <f t="shared" ref="L5" ca="1" si="2">DATEDIF(K5,TODAY(),"M")</f>
+        <v>#VALUE!</v>
+      </c>
       <c r="M5" s="48"/>
-      <c r="N5" s="49"/>
-      <c r="O5" s="49"/>
-      <c r="P5" s="49"/>
+      <c r="N5" s="48"/>
+      <c r="O5" s="48"/>
+      <c r="P5" s="48"/>
       <c r="Q5" s="49"/>
       <c r="R5" s="49"/>
       <c r="S5" s="49"/>
@@ -2022,44 +2065,47 @@
       <c r="V5" s="49"/>
       <c r="W5" s="49"/>
       <c r="X5" s="49"/>
-      <c r="Y5" s="30">
-        <f t="shared" ref="Y5" si="3">SUM(N5:X5)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y5" s="49"/>
+      <c r="Z5" s="49"/>
+      <c r="AA5" s="49"/>
+      <c r="AB5" s="30">
+        <f t="shared" ref="AB5" si="3">SUM(Q5:AA5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="38"/>
-      <c r="B6" s="62" t="s">
-        <v>77</v>
-      </c>
-      <c r="C6" s="36"/>
-      <c r="D6" s="63"/>
-      <c r="E6" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="F6" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="G6" s="27" t="e">
-        <f t="array" ref="G6">_xlfn.IFS(F6="Estatutário","Estatutário",F6="Outro","Outro",F6="Substituto","Outro",F6="Visitante","Outro")</f>
-        <v>#N/A</v>
+      <c r="B6" s="38"/>
+      <c r="C6" s="62" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6" s="36"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="63"/>
+      <c r="G6" s="26" t="s">
+        <v>77</v>
       </c>
       <c r="H6" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="I6" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="J6" s="28" t="e">
+      <c r="I6" s="27" t="e">
+        <f t="array" ref="I6">_xlfn.IFS(H6="Estatutário","Estatutário",H6="Outro","Outro",H6="Substituto","Outro",H6="Visitante","Outro")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J6" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="K6" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="L6" s="28" t="e">
         <f t="shared" ca="1" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K6" s="29"/>
-      <c r="L6" s="29"/>
       <c r="M6" s="29"/>
-      <c r="N6" s="28"/>
-      <c r="O6" s="28"/>
-      <c r="P6" s="28"/>
+      <c r="N6" s="29"/>
+      <c r="O6" s="29"/>
+      <c r="P6" s="29"/>
       <c r="Q6" s="28"/>
       <c r="R6" s="28"/>
       <c r="S6" s="28"/>
@@ -2068,44 +2114,47 @@
       <c r="V6" s="28"/>
       <c r="W6" s="28"/>
       <c r="X6" s="28"/>
-      <c r="Y6" s="30">
+      <c r="Y6" s="28"/>
+      <c r="Z6" s="28"/>
+      <c r="AA6" s="28"/>
+      <c r="AB6" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="38"/>
-      <c r="B7" s="62" t="s">
-        <v>77</v>
-      </c>
-      <c r="C7" s="36"/>
-      <c r="D7" s="63"/>
-      <c r="E7" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="F7" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="G7" s="27" t="e">
-        <f t="array" ref="G7">_xlfn.IFS(F7="Estatutário","Estatutário",F7="Outro","Outro",F7="Substituto","Outro",F7="Visitante","Outro")</f>
-        <v>#N/A</v>
+      <c r="B7" s="38"/>
+      <c r="C7" s="62" t="s">
+        <v>77</v>
+      </c>
+      <c r="D7" s="36"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="63"/>
+      <c r="G7" s="26" t="s">
+        <v>77</v>
       </c>
       <c r="H7" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="I7" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="J7" s="28" t="e">
+      <c r="I7" s="27" t="e">
+        <f t="array" ref="I7">_xlfn.IFS(H7="Estatutário","Estatutário",H7="Outro","Outro",H7="Substituto","Outro",H7="Visitante","Outro")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J7" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="K7" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="L7" s="28" t="e">
         <f t="shared" ca="1" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K7" s="29"/>
-      <c r="L7" s="29"/>
       <c r="M7" s="29"/>
-      <c r="N7" s="28"/>
-      <c r="O7" s="28"/>
-      <c r="P7" s="28"/>
+      <c r="N7" s="29"/>
+      <c r="O7" s="29"/>
+      <c r="P7" s="29"/>
       <c r="Q7" s="28"/>
       <c r="R7" s="28"/>
       <c r="S7" s="28"/>
@@ -2114,44 +2163,47 @@
       <c r="V7" s="28"/>
       <c r="W7" s="28"/>
       <c r="X7" s="28"/>
-      <c r="Y7" s="30">
+      <c r="Y7" s="28"/>
+      <c r="Z7" s="28"/>
+      <c r="AA7" s="28"/>
+      <c r="AB7" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="38"/>
-      <c r="B8" s="62" t="s">
-        <v>77</v>
-      </c>
-      <c r="C8" s="36"/>
-      <c r="D8" s="63"/>
-      <c r="E8" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="F8" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="G8" s="27" t="e">
-        <f t="array" ref="G8">_xlfn.IFS(F8="Estatutário","Estatutário",F8="Outro","Outro",F8="Substituto","Outro",F8="Visitante","Outro")</f>
-        <v>#N/A</v>
+      <c r="B8" s="38"/>
+      <c r="C8" s="62" t="s">
+        <v>77</v>
+      </c>
+      <c r="D8" s="36"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="63"/>
+      <c r="G8" s="26" t="s">
+        <v>77</v>
       </c>
       <c r="H8" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="I8" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="J8" s="28" t="e">
+      <c r="I8" s="27" t="e">
+        <f t="array" ref="I8">_xlfn.IFS(H8="Estatutário","Estatutário",H8="Outro","Outro",H8="Substituto","Outro",H8="Visitante","Outro")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J8" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="K8" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="L8" s="28" t="e">
         <f t="shared" ca="1" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K8" s="29"/>
-      <c r="L8" s="29"/>
       <c r="M8" s="29"/>
-      <c r="N8" s="28"/>
-      <c r="O8" s="28"/>
-      <c r="P8" s="28"/>
+      <c r="N8" s="29"/>
+      <c r="O8" s="29"/>
+      <c r="P8" s="29"/>
       <c r="Q8" s="28"/>
       <c r="R8" s="28"/>
       <c r="S8" s="28"/>
@@ -2160,44 +2212,47 @@
       <c r="V8" s="28"/>
       <c r="W8" s="28"/>
       <c r="X8" s="28"/>
-      <c r="Y8" s="30">
+      <c r="Y8" s="28"/>
+      <c r="Z8" s="28"/>
+      <c r="AA8" s="28"/>
+      <c r="AB8" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="38"/>
-      <c r="B9" s="62" t="s">
-        <v>77</v>
-      </c>
-      <c r="C9" s="30"/>
-      <c r="D9" s="63"/>
-      <c r="E9" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="F9" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="G9" s="27" t="e">
-        <f t="array" ref="G9">_xlfn.IFS(F9="Estatutário","Estatutário",F9="Outro","Outro",F9="Substituto","Outro",F9="Visitante","Outro")</f>
-        <v>#N/A</v>
+      <c r="B9" s="38"/>
+      <c r="C9" s="62" t="s">
+        <v>77</v>
+      </c>
+      <c r="D9" s="30"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="63"/>
+      <c r="G9" s="26" t="s">
+        <v>77</v>
       </c>
       <c r="H9" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="I9" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="J9" s="28" t="e">
+      <c r="I9" s="27" t="e">
+        <f t="array" ref="I9">_xlfn.IFS(H9="Estatutário","Estatutário",H9="Outro","Outro",H9="Substituto","Outro",H9="Visitante","Outro")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J9" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="K9" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="L9" s="28" t="e">
         <f t="shared" ca="1" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K9" s="29"/>
-      <c r="L9" s="29"/>
       <c r="M9" s="29"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="28"/>
-      <c r="P9" s="28"/>
+      <c r="N9" s="29"/>
+      <c r="O9" s="29"/>
+      <c r="P9" s="29"/>
       <c r="Q9" s="28"/>
       <c r="R9" s="28"/>
       <c r="S9" s="28"/>
@@ -2206,44 +2261,47 @@
       <c r="V9" s="28"/>
       <c r="W9" s="28"/>
       <c r="X9" s="28"/>
-      <c r="Y9" s="30">
+      <c r="Y9" s="28"/>
+      <c r="Z9" s="28"/>
+      <c r="AA9" s="28"/>
+      <c r="AB9" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="38"/>
-      <c r="B10" s="62" t="s">
-        <v>77</v>
-      </c>
-      <c r="C10" s="30"/>
-      <c r="D10" s="63"/>
-      <c r="E10" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="F10" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="G10" s="27" t="e">
-        <f t="array" ref="G10">_xlfn.IFS(F10="Estatutário","Estatutário",F10="Outro","Outro",F10="Substituto","Outro",F10="Visitante","Outro")</f>
-        <v>#N/A</v>
+      <c r="B10" s="38"/>
+      <c r="C10" s="62" t="s">
+        <v>77</v>
+      </c>
+      <c r="D10" s="30"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="63"/>
+      <c r="G10" s="26" t="s">
+        <v>77</v>
       </c>
       <c r="H10" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="I10" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="J10" s="28" t="e">
+      <c r="I10" s="27" t="e">
+        <f t="array" ref="I10">_xlfn.IFS(H10="Estatutário","Estatutário",H10="Outro","Outro",H10="Substituto","Outro",H10="Visitante","Outro")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J10" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="K10" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="L10" s="28" t="e">
         <f t="shared" ca="1" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K10" s="29"/>
-      <c r="L10" s="29"/>
       <c r="M10" s="29"/>
-      <c r="N10" s="28"/>
-      <c r="O10" s="28"/>
-      <c r="P10" s="28"/>
+      <c r="N10" s="29"/>
+      <c r="O10" s="29"/>
+      <c r="P10" s="29"/>
       <c r="Q10" s="28"/>
       <c r="R10" s="28"/>
       <c r="S10" s="28"/>
@@ -2252,44 +2310,47 @@
       <c r="V10" s="28"/>
       <c r="W10" s="28"/>
       <c r="X10" s="28"/>
-      <c r="Y10" s="30">
+      <c r="Y10" s="28"/>
+      <c r="Z10" s="28"/>
+      <c r="AA10" s="28"/>
+      <c r="AB10" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="38"/>
-      <c r="B11" s="62" t="s">
-        <v>77</v>
-      </c>
-      <c r="C11" s="36"/>
-      <c r="D11" s="63"/>
-      <c r="E11" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="F11" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="G11" s="27" t="e">
-        <f t="array" ref="G11">_xlfn.IFS(F11="Estatutário","Estatutário",F11="Outro","Outro",F11="Substituto","Outro",F11="Visitante","Outro")</f>
-        <v>#N/A</v>
+      <c r="B11" s="38"/>
+      <c r="C11" s="62" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11" s="36"/>
+      <c r="E11" s="63"/>
+      <c r="F11" s="63"/>
+      <c r="G11" s="26" t="s">
+        <v>77</v>
       </c>
       <c r="H11" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="I11" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="J11" s="28" t="e">
+      <c r="I11" s="27" t="e">
+        <f t="array" ref="I11">_xlfn.IFS(H11="Estatutário","Estatutário",H11="Outro","Outro",H11="Substituto","Outro",H11="Visitante","Outro")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J11" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="K11" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="L11" s="28" t="e">
         <f t="shared" ca="1" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K11" s="29"/>
-      <c r="L11" s="29"/>
       <c r="M11" s="29"/>
-      <c r="N11" s="28"/>
-      <c r="O11" s="28"/>
-      <c r="P11" s="28"/>
+      <c r="N11" s="29"/>
+      <c r="O11" s="29"/>
+      <c r="P11" s="29"/>
       <c r="Q11" s="28"/>
       <c r="R11" s="28"/>
       <c r="S11" s="28"/>
@@ -2298,44 +2359,47 @@
       <c r="V11" s="28"/>
       <c r="W11" s="28"/>
       <c r="X11" s="28"/>
-      <c r="Y11" s="30">
+      <c r="Y11" s="28"/>
+      <c r="Z11" s="28"/>
+      <c r="AA11" s="28"/>
+      <c r="AB11" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:25" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:28" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="53"/>
-      <c r="B12" s="62" t="s">
-        <v>77</v>
-      </c>
-      <c r="C12" s="41"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="F12" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="G12" s="43" t="e">
-        <f t="array" ref="G12">_xlfn.IFS(F12="Estatutário","Estatutário",F12="Outro","Outro",F12="Substituto","Outro",F12="Visitante","Outro")</f>
-        <v>#N/A</v>
+      <c r="B12" s="53"/>
+      <c r="C12" s="62" t="s">
+        <v>77</v>
+      </c>
+      <c r="D12" s="41"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="75"/>
+      <c r="G12" s="26" t="s">
+        <v>77</v>
       </c>
       <c r="H12" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="I12" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="J12" s="51" t="e">
+      <c r="I12" s="43" t="e">
+        <f t="array" ref="I12">_xlfn.IFS(H12="Estatutário","Estatutário",H12="Outro","Outro",H12="Substituto","Outro",H12="Visitante","Outro")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J12" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="K12" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="L12" s="51" t="e">
         <f t="shared" ca="1" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K12" s="44"/>
-      <c r="L12" s="44"/>
       <c r="M12" s="44"/>
-      <c r="N12" s="45"/>
-      <c r="O12" s="45"/>
-      <c r="P12" s="45"/>
+      <c r="N12" s="44"/>
+      <c r="O12" s="44"/>
+      <c r="P12" s="44"/>
       <c r="Q12" s="45"/>
       <c r="R12" s="45"/>
       <c r="S12" s="45"/>
@@ -2344,44 +2408,47 @@
       <c r="V12" s="45"/>
       <c r="W12" s="45"/>
       <c r="X12" s="45"/>
-      <c r="Y12" s="50">
+      <c r="Y12" s="45"/>
+      <c r="Z12" s="45"/>
+      <c r="AA12" s="45"/>
+      <c r="AB12" s="50">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="38"/>
-      <c r="B13" s="62" t="s">
-        <v>77</v>
-      </c>
-      <c r="C13" s="30"/>
-      <c r="D13" s="63"/>
-      <c r="E13" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="F13" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="G13" s="27" t="e">
-        <f t="array" ref="G13">_xlfn.IFS(F13="Estatutário","Estatutário",F13="Outro","Outro",F13="Substituto","Outro",F13="Visitante","Outro")</f>
-        <v>#N/A</v>
+      <c r="B13" s="38"/>
+      <c r="C13" s="62" t="s">
+        <v>77</v>
+      </c>
+      <c r="D13" s="30"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="26" t="s">
+        <v>77</v>
       </c>
       <c r="H13" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="I13" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="J13" s="28" t="e">
+      <c r="I13" s="27" t="e">
+        <f t="array" ref="I13">_xlfn.IFS(H13="Estatutário","Estatutário",H13="Outro","Outro",H13="Substituto","Outro",H13="Visitante","Outro")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J13" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="K13" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="L13" s="28" t="e">
         <f t="shared" ca="1" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K13" s="29"/>
-      <c r="L13" s="29"/>
       <c r="M13" s="29"/>
-      <c r="N13" s="28"/>
-      <c r="O13" s="28"/>
-      <c r="P13" s="28"/>
+      <c r="N13" s="29"/>
+      <c r="O13" s="29"/>
+      <c r="P13" s="29"/>
       <c r="Q13" s="28"/>
       <c r="R13" s="28"/>
       <c r="S13" s="28"/>
@@ -2390,44 +2457,47 @@
       <c r="V13" s="28"/>
       <c r="W13" s="28"/>
       <c r="X13" s="28"/>
-      <c r="Y13" s="30">
+      <c r="Y13" s="28"/>
+      <c r="Z13" s="28"/>
+      <c r="AA13" s="28"/>
+      <c r="AB13" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="38"/>
-      <c r="B14" s="62" t="s">
-        <v>77</v>
-      </c>
-      <c r="C14" s="30"/>
-      <c r="D14" s="63"/>
-      <c r="E14" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="F14" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="G14" s="27" t="e">
-        <f t="array" ref="G14">_xlfn.IFS(F14="Estatutário","Estatutário",F14="Outro","Outro",F14="Substituto","Outro",F14="Visitante","Outro")</f>
-        <v>#N/A</v>
+      <c r="B14" s="38"/>
+      <c r="C14" s="62" t="s">
+        <v>77</v>
+      </c>
+      <c r="D14" s="30"/>
+      <c r="E14" s="63"/>
+      <c r="F14" s="63"/>
+      <c r="G14" s="26" t="s">
+        <v>77</v>
       </c>
       <c r="H14" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="I14" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="J14" s="28" t="e">
+      <c r="I14" s="27" t="e">
+        <f t="array" ref="I14">_xlfn.IFS(H14="Estatutário","Estatutário",H14="Outro","Outro",H14="Substituto","Outro",H14="Visitante","Outro")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J14" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="K14" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="L14" s="28" t="e">
         <f t="shared" ca="1" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K14" s="29"/>
-      <c r="L14" s="29"/>
       <c r="M14" s="29"/>
-      <c r="N14" s="28"/>
-      <c r="O14" s="28"/>
-      <c r="P14" s="28"/>
+      <c r="N14" s="29"/>
+      <c r="O14" s="29"/>
+      <c r="P14" s="29"/>
       <c r="Q14" s="28"/>
       <c r="R14" s="28"/>
       <c r="S14" s="28"/>
@@ -2436,44 +2506,47 @@
       <c r="V14" s="28"/>
       <c r="W14" s="28"/>
       <c r="X14" s="28"/>
-      <c r="Y14" s="30">
+      <c r="Y14" s="28"/>
+      <c r="Z14" s="28"/>
+      <c r="AA14" s="28"/>
+      <c r="AB14" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="38"/>
-      <c r="B15" s="62" t="s">
-        <v>77</v>
-      </c>
-      <c r="C15" s="36"/>
-      <c r="D15" s="63"/>
-      <c r="E15" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="F15" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="G15" s="27" t="e">
-        <f t="array" ref="G15">_xlfn.IFS(F15="Estatutário","Estatutário",F15="Outro","Outro",F15="Substituto","Outro",F15="Visitante","Outro")</f>
-        <v>#N/A</v>
+      <c r="B15" s="38"/>
+      <c r="C15" s="62" t="s">
+        <v>77</v>
+      </c>
+      <c r="D15" s="36"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="26" t="s">
+        <v>77</v>
       </c>
       <c r="H15" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="I15" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="J15" s="28" t="e">
+      <c r="I15" s="27" t="e">
+        <f t="array" ref="I15">_xlfn.IFS(H15="Estatutário","Estatutário",H15="Outro","Outro",H15="Substituto","Outro",H15="Visitante","Outro")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J15" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="K15" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="L15" s="28" t="e">
         <f t="shared" ca="1" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K15" s="29"/>
-      <c r="L15" s="29"/>
       <c r="M15" s="29"/>
-      <c r="N15" s="28"/>
-      <c r="O15" s="28"/>
-      <c r="P15" s="28"/>
+      <c r="N15" s="29"/>
+      <c r="O15" s="29"/>
+      <c r="P15" s="29"/>
       <c r="Q15" s="28"/>
       <c r="R15" s="28"/>
       <c r="S15" s="28"/>
@@ -2482,44 +2555,47 @@
       <c r="V15" s="28"/>
       <c r="W15" s="28"/>
       <c r="X15" s="28"/>
-      <c r="Y15" s="30">
+      <c r="Y15" s="28"/>
+      <c r="Z15" s="28"/>
+      <c r="AA15" s="28"/>
+      <c r="AB15" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:25" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:28" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="53"/>
-      <c r="B16" s="62" t="s">
-        <v>77</v>
-      </c>
-      <c r="C16" s="41"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="F16" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="G16" s="43" t="e">
-        <f t="array" ref="G16">_xlfn.IFS(F16="Estatutário","Estatutário",F16="Outro","Outro",F16="Substituto","Outro",F16="Visitante","Outro")</f>
-        <v>#N/A</v>
+      <c r="B16" s="53"/>
+      <c r="C16" s="62" t="s">
+        <v>77</v>
+      </c>
+      <c r="D16" s="41"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="75"/>
+      <c r="G16" s="26" t="s">
+        <v>77</v>
       </c>
       <c r="H16" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="I16" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="J16" s="51" t="e">
+      <c r="I16" s="43" t="e">
+        <f t="array" ref="I16">_xlfn.IFS(H16="Estatutário","Estatutário",H16="Outro","Outro",H16="Substituto","Outro",H16="Visitante","Outro")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J16" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="K16" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="L16" s="51" t="e">
         <f t="shared" ca="1" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K16" s="44"/>
-      <c r="L16" s="44"/>
       <c r="M16" s="44"/>
-      <c r="N16" s="45"/>
-      <c r="O16" s="45"/>
-      <c r="P16" s="45"/>
+      <c r="N16" s="44"/>
+      <c r="O16" s="44"/>
+      <c r="P16" s="44"/>
       <c r="Q16" s="45"/>
       <c r="R16" s="45"/>
       <c r="S16" s="45"/>
@@ -2528,44 +2604,47 @@
       <c r="V16" s="45"/>
       <c r="W16" s="45"/>
       <c r="X16" s="45"/>
-      <c r="Y16" s="50">
+      <c r="Y16" s="45"/>
+      <c r="Z16" s="45"/>
+      <c r="AA16" s="45"/>
+      <c r="AB16" s="50">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="38"/>
-      <c r="B17" s="62" t="s">
-        <v>77</v>
-      </c>
-      <c r="C17" s="30"/>
-      <c r="D17" s="63"/>
-      <c r="E17" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="F17" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="G17" s="27" t="e">
-        <f t="array" ref="G17">_xlfn.IFS(F17="Estatutário","Estatutário",F17="Outro","Outro",F17="Substituto","Outro",F17="Visitante","Outro")</f>
-        <v>#N/A</v>
+      <c r="B17" s="38"/>
+      <c r="C17" s="62" t="s">
+        <v>77</v>
+      </c>
+      <c r="D17" s="30"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="26" t="s">
+        <v>77</v>
       </c>
       <c r="H17" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="I17" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="J17" s="28" t="e">
+      <c r="I17" s="27" t="e">
+        <f t="array" ref="I17">_xlfn.IFS(H17="Estatutário","Estatutário",H17="Outro","Outro",H17="Substituto","Outro",H17="Visitante","Outro")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J17" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="K17" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="L17" s="28" t="e">
         <f t="shared" ca="1" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K17" s="29"/>
-      <c r="L17" s="29"/>
       <c r="M17" s="29"/>
-      <c r="N17" s="28"/>
-      <c r="O17" s="28"/>
-      <c r="P17" s="28"/>
+      <c r="N17" s="29"/>
+      <c r="O17" s="29"/>
+      <c r="P17" s="29"/>
       <c r="Q17" s="28"/>
       <c r="R17" s="28"/>
       <c r="S17" s="28"/>
@@ -2574,44 +2653,47 @@
       <c r="V17" s="28"/>
       <c r="W17" s="28"/>
       <c r="X17" s="28"/>
-      <c r="Y17" s="30">
+      <c r="Y17" s="28"/>
+      <c r="Z17" s="28"/>
+      <c r="AA17" s="28"/>
+      <c r="AB17" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:25" s="52" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:28" s="52" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="46"/>
-      <c r="B18" s="62" t="s">
-        <v>77</v>
-      </c>
-      <c r="C18" s="59"/>
-      <c r="D18" s="65"/>
-      <c r="E18" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="F18" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="G18" s="48" t="e">
-        <f t="array" ref="G18">_xlfn.IFS(F18="Estatutário","Estatutário",F18="Outro","Outro",F18="Substituto","Outro",F18="Visitante","Outro")</f>
-        <v>#N/A</v>
+      <c r="B18" s="46"/>
+      <c r="C18" s="62" t="s">
+        <v>77</v>
+      </c>
+      <c r="D18" s="59"/>
+      <c r="E18" s="65"/>
+      <c r="F18" s="65"/>
+      <c r="G18" s="26" t="s">
+        <v>77</v>
       </c>
       <c r="H18" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="I18" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="J18" s="51" t="e">
-        <f t="shared" ref="J18:J19" ca="1" si="4">DATEDIF(I18,TODAY(),"M")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K18" s="53"/>
-      <c r="L18" s="53"/>
+      <c r="I18" s="48" t="e">
+        <f t="array" ref="I18">_xlfn.IFS(H18="Estatutário","Estatutário",H18="Outro","Outro",H18="Substituto","Outro",H18="Visitante","Outro")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J18" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="K18" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="L18" s="51" t="e">
+        <f t="shared" ref="L18:L19" ca="1" si="4">DATEDIF(K18,TODAY(),"M")</f>
+        <v>#VALUE!</v>
+      </c>
       <c r="M18" s="53"/>
-      <c r="N18" s="70"/>
-      <c r="O18" s="70"/>
-      <c r="P18" s="70"/>
+      <c r="N18" s="53"/>
+      <c r="O18" s="53"/>
+      <c r="P18" s="53"/>
       <c r="Q18" s="70"/>
       <c r="R18" s="70"/>
       <c r="S18" s="70"/>
@@ -2620,44 +2702,47 @@
       <c r="V18" s="70"/>
       <c r="W18" s="70"/>
       <c r="X18" s="70"/>
-      <c r="Y18" s="50">
-        <f t="shared" ref="Y18:Y19" si="5">SUM(N18:X18)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y18" s="70"/>
+      <c r="Z18" s="70"/>
+      <c r="AA18" s="70"/>
+      <c r="AB18" s="50">
+        <f t="shared" ref="AB18:AB19" si="5">SUM(Q18:AA18)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="46"/>
-      <c r="B19" s="62" t="s">
-        <v>77</v>
-      </c>
-      <c r="C19" s="41"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="F19" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="G19" s="43" t="e">
-        <f t="array" ref="G19">_xlfn.IFS(F19="Estatutário","Estatutário",F19="Outro","Outro",F19="Substituto","Outro",F19="Visitante","Outro")</f>
-        <v>#N/A</v>
+      <c r="B19" s="46"/>
+      <c r="C19" s="62" t="s">
+        <v>77</v>
+      </c>
+      <c r="D19" s="41"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="75"/>
+      <c r="G19" s="26" t="s">
+        <v>77</v>
       </c>
       <c r="H19" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="I19" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="J19" s="28" t="e">
+      <c r="I19" s="43" t="e">
+        <f t="array" ref="I19">_xlfn.IFS(H19="Estatutário","Estatutário",H19="Outro","Outro",H19="Substituto","Outro",H19="Visitante","Outro")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J19" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="K19" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="L19" s="28" t="e">
         <f t="shared" ca="1" si="4"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K19" s="44"/>
-      <c r="L19" s="44"/>
       <c r="M19" s="44"/>
-      <c r="N19" s="45"/>
-      <c r="O19" s="45"/>
-      <c r="P19" s="45"/>
+      <c r="N19" s="44"/>
+      <c r="O19" s="44"/>
+      <c r="P19" s="44"/>
       <c r="Q19" s="45"/>
       <c r="R19" s="45"/>
       <c r="S19" s="45"/>
@@ -2666,44 +2751,47 @@
       <c r="V19" s="45"/>
       <c r="W19" s="45"/>
       <c r="X19" s="45"/>
-      <c r="Y19" s="30">
+      <c r="Y19" s="45"/>
+      <c r="Z19" s="45"/>
+      <c r="AA19" s="45"/>
+      <c r="AB19" s="30">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="38"/>
-      <c r="B20" s="62" t="s">
-        <v>77</v>
-      </c>
-      <c r="C20" s="30"/>
-      <c r="D20" s="63"/>
-      <c r="E20" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="F20" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="G20" s="27" t="e">
-        <f t="array" ref="G20">_xlfn.IFS(F20="Estatutário","Estatutário",F20="Outro","Outro",F20="Substituto","Outro",F20="Visitante","Outro")</f>
-        <v>#N/A</v>
+      <c r="B20" s="38"/>
+      <c r="C20" s="62" t="s">
+        <v>77</v>
+      </c>
+      <c r="D20" s="30"/>
+      <c r="E20" s="63"/>
+      <c r="F20" s="63"/>
+      <c r="G20" s="26" t="s">
+        <v>77</v>
       </c>
       <c r="H20" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="I20" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="J20" s="28" t="e">
+      <c r="I20" s="27" t="e">
+        <f t="array" ref="I20">_xlfn.IFS(H20="Estatutário","Estatutário",H20="Outro","Outro",H20="Substituto","Outro",H20="Visitante","Outro")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J20" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="K20" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="L20" s="28" t="e">
         <f t="shared" ca="1" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K20" s="29"/>
-      <c r="L20" s="29"/>
       <c r="M20" s="29"/>
-      <c r="N20" s="28"/>
-      <c r="O20" s="28"/>
-      <c r="P20" s="28"/>
+      <c r="N20" s="29"/>
+      <c r="O20" s="29"/>
+      <c r="P20" s="29"/>
       <c r="Q20" s="28"/>
       <c r="R20" s="28"/>
       <c r="S20" s="28"/>
@@ -2712,44 +2800,47 @@
       <c r="V20" s="28"/>
       <c r="W20" s="28"/>
       <c r="X20" s="28"/>
-      <c r="Y20" s="30">
+      <c r="Y20" s="28"/>
+      <c r="Z20" s="28"/>
+      <c r="AA20" s="28"/>
+      <c r="AB20" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="38"/>
-      <c r="B21" s="62" t="s">
-        <v>77</v>
-      </c>
-      <c r="C21" s="30"/>
-      <c r="D21" s="63"/>
-      <c r="E21" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="F21" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="G21" s="27" t="e">
-        <f t="array" ref="G21">_xlfn.IFS(F21="Estatutário","Estatutário",F21="Outro","Outro",F21="Substituto","Outro",F21="Visitante","Outro")</f>
-        <v>#N/A</v>
+      <c r="B21" s="38"/>
+      <c r="C21" s="62" t="s">
+        <v>77</v>
+      </c>
+      <c r="D21" s="30"/>
+      <c r="E21" s="63"/>
+      <c r="F21" s="63"/>
+      <c r="G21" s="26" t="s">
+        <v>77</v>
       </c>
       <c r="H21" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="I21" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="J21" s="28" t="e">
+      <c r="I21" s="27" t="e">
+        <f t="array" ref="I21">_xlfn.IFS(H21="Estatutário","Estatutário",H21="Outro","Outro",H21="Substituto","Outro",H21="Visitante","Outro")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J21" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="K21" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="L21" s="28" t="e">
         <f t="shared" ca="1" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K21" s="29"/>
-      <c r="L21" s="29"/>
       <c r="M21" s="29"/>
-      <c r="N21" s="28"/>
-      <c r="O21" s="28"/>
-      <c r="P21" s="28"/>
+      <c r="N21" s="29"/>
+      <c r="O21" s="29"/>
+      <c r="P21" s="29"/>
       <c r="Q21" s="28"/>
       <c r="R21" s="28"/>
       <c r="S21" s="28"/>
@@ -2758,44 +2849,47 @@
       <c r="V21" s="28"/>
       <c r="W21" s="28"/>
       <c r="X21" s="28"/>
-      <c r="Y21" s="30">
+      <c r="Y21" s="28"/>
+      <c r="Z21" s="28"/>
+      <c r="AA21" s="28"/>
+      <c r="AB21" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="46"/>
-      <c r="B22" s="62" t="s">
-        <v>77</v>
-      </c>
-      <c r="C22" s="41"/>
-      <c r="D22" s="42"/>
-      <c r="E22" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="F22" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="G22" s="43" t="e">
-        <f t="array" ref="G22">_xlfn.IFS(F22="Estatutário","Estatutário",F22="Outro","Outro",F22="Substituto","Outro",F22="Visitante","Outro")</f>
-        <v>#N/A</v>
+      <c r="B22" s="46"/>
+      <c r="C22" s="62" t="s">
+        <v>77</v>
+      </c>
+      <c r="D22" s="41"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="75"/>
+      <c r="G22" s="26" t="s">
+        <v>77</v>
       </c>
       <c r="H22" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="I22" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="J22" s="28" t="e">
-        <f t="shared" ref="J22" ca="1" si="6">DATEDIF(I22,TODAY(),"M")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K22" s="44"/>
-      <c r="L22" s="44"/>
+      <c r="I22" s="43" t="e">
+        <f t="array" ref="I22">_xlfn.IFS(H22="Estatutário","Estatutário",H22="Outro","Outro",H22="Substituto","Outro",H22="Visitante","Outro")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J22" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="K22" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="L22" s="28" t="e">
+        <f t="shared" ref="L22" ca="1" si="6">DATEDIF(K22,TODAY(),"M")</f>
+        <v>#VALUE!</v>
+      </c>
       <c r="M22" s="44"/>
-      <c r="N22" s="45"/>
-      <c r="O22" s="45"/>
-      <c r="P22" s="45"/>
+      <c r="N22" s="44"/>
+      <c r="O22" s="44"/>
+      <c r="P22" s="44"/>
       <c r="Q22" s="45"/>
       <c r="R22" s="45"/>
       <c r="S22" s="45"/>
@@ -2804,44 +2898,47 @@
       <c r="V22" s="45"/>
       <c r="W22" s="45"/>
       <c r="X22" s="45"/>
-      <c r="Y22" s="30">
-        <f t="shared" ref="Y22" si="7">SUM(N22:X22)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y22" s="45"/>
+      <c r="Z22" s="45"/>
+      <c r="AA22" s="45"/>
+      <c r="AB22" s="30">
+        <f t="shared" ref="AB22" si="7">SUM(Q22:AA22)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="38"/>
-      <c r="B23" s="62" t="s">
-        <v>77</v>
-      </c>
-      <c r="C23" s="36"/>
-      <c r="D23" s="63"/>
-      <c r="E23" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="F23" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="G23" s="27" t="e">
-        <f t="array" ref="G23">_xlfn.IFS(F23="Estatutário","Estatutário",F23="Outro","Outro",F23="Substituto","Outro",F23="Visitante","Outro")</f>
-        <v>#N/A</v>
+      <c r="B23" s="38"/>
+      <c r="C23" s="62" t="s">
+        <v>77</v>
+      </c>
+      <c r="D23" s="36"/>
+      <c r="E23" s="63"/>
+      <c r="F23" s="63"/>
+      <c r="G23" s="26" t="s">
+        <v>77</v>
       </c>
       <c r="H23" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="I23" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="J23" s="28" t="e">
+      <c r="I23" s="27" t="e">
+        <f t="array" ref="I23">_xlfn.IFS(H23="Estatutário","Estatutário",H23="Outro","Outro",H23="Substituto","Outro",H23="Visitante","Outro")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J23" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="K23" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="L23" s="28" t="e">
         <f t="shared" ca="1" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K23" s="29"/>
-      <c r="L23" s="29"/>
       <c r="M23" s="29"/>
-      <c r="N23" s="28"/>
-      <c r="O23" s="28"/>
-      <c r="P23" s="28"/>
+      <c r="N23" s="29"/>
+      <c r="O23" s="29"/>
+      <c r="P23" s="29"/>
       <c r="Q23" s="28"/>
       <c r="R23" s="28"/>
       <c r="S23" s="28"/>
@@ -2850,44 +2947,47 @@
       <c r="V23" s="28"/>
       <c r="W23" s="28"/>
       <c r="X23" s="28"/>
-      <c r="Y23" s="30">
+      <c r="Y23" s="28"/>
+      <c r="Z23" s="28"/>
+      <c r="AA23" s="28"/>
+      <c r="AB23" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="38"/>
-      <c r="B24" s="62" t="s">
-        <v>77</v>
-      </c>
-      <c r="C24" s="30"/>
-      <c r="D24" s="63"/>
-      <c r="E24" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="F24" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="G24" s="27" t="e">
-        <f t="array" ref="G24">_xlfn.IFS(F24="Estatutário","Estatutário",F24="Outro","Outro",F24="Substituto","Outro",F24="Visitante","Outro")</f>
-        <v>#N/A</v>
+      <c r="B24" s="38"/>
+      <c r="C24" s="62" t="s">
+        <v>77</v>
+      </c>
+      <c r="D24" s="30"/>
+      <c r="E24" s="63"/>
+      <c r="F24" s="63"/>
+      <c r="G24" s="26" t="s">
+        <v>77</v>
       </c>
       <c r="H24" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="I24" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="J24" s="28" t="e">
+      <c r="I24" s="27" t="e">
+        <f t="array" ref="I24">_xlfn.IFS(H24="Estatutário","Estatutário",H24="Outro","Outro",H24="Substituto","Outro",H24="Visitante","Outro")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J24" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="K24" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="L24" s="28" t="e">
         <f t="shared" ca="1" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K24" s="29"/>
-      <c r="L24" s="29"/>
       <c r="M24" s="29"/>
-      <c r="N24" s="28"/>
-      <c r="O24" s="28"/>
-      <c r="P24" s="28"/>
+      <c r="N24" s="29"/>
+      <c r="O24" s="29"/>
+      <c r="P24" s="29"/>
       <c r="Q24" s="28"/>
       <c r="R24" s="28"/>
       <c r="S24" s="28"/>
@@ -2896,44 +2996,47 @@
       <c r="V24" s="28"/>
       <c r="W24" s="28"/>
       <c r="X24" s="28"/>
-      <c r="Y24" s="30">
+      <c r="Y24" s="28"/>
+      <c r="Z24" s="28"/>
+      <c r="AA24" s="28"/>
+      <c r="AB24" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="38"/>
-      <c r="B25" s="62" t="s">
-        <v>77</v>
-      </c>
-      <c r="C25" s="36"/>
-      <c r="D25" s="63"/>
-      <c r="E25" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="F25" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="G25" s="27" t="e">
-        <f t="array" ref="G25">_xlfn.IFS(F25="Estatutário","Estatutário",F25="Outro","Outro",F25="Substituto","Outro",F25="Visitante","Outro")</f>
-        <v>#N/A</v>
+      <c r="B25" s="38"/>
+      <c r="C25" s="62" t="s">
+        <v>77</v>
+      </c>
+      <c r="D25" s="36"/>
+      <c r="E25" s="63"/>
+      <c r="F25" s="63"/>
+      <c r="G25" s="26" t="s">
+        <v>77</v>
       </c>
       <c r="H25" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="I25" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="J25" s="28" t="e">
+      <c r="I25" s="27" t="e">
+        <f t="array" ref="I25">_xlfn.IFS(H25="Estatutário","Estatutário",H25="Outro","Outro",H25="Substituto","Outro",H25="Visitante","Outro")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J25" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="K25" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="L25" s="28" t="e">
         <f t="shared" ca="1" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K25" s="29"/>
-      <c r="L25" s="29"/>
       <c r="M25" s="29"/>
-      <c r="N25" s="28"/>
-      <c r="O25" s="28"/>
-      <c r="P25" s="28"/>
+      <c r="N25" s="29"/>
+      <c r="O25" s="29"/>
+      <c r="P25" s="29"/>
       <c r="Q25" s="28"/>
       <c r="R25" s="28"/>
       <c r="S25" s="28"/>
@@ -2942,44 +3045,47 @@
       <c r="V25" s="28"/>
       <c r="W25" s="28"/>
       <c r="X25" s="28"/>
-      <c r="Y25" s="30">
+      <c r="Y25" s="28"/>
+      <c r="Z25" s="28"/>
+      <c r="AA25" s="28"/>
+      <c r="AB25" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="38"/>
-      <c r="B26" s="62" t="s">
-        <v>77</v>
-      </c>
-      <c r="C26" s="30"/>
-      <c r="D26" s="63"/>
-      <c r="E26" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="F26" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="G26" s="27" t="e">
-        <f t="array" ref="G26">_xlfn.IFS(F26="Estatutário","Estatutário",F26="Outro","Outro",F26="Substituto","Outro",F26="Visitante","Outro")</f>
-        <v>#N/A</v>
+      <c r="B26" s="38"/>
+      <c r="C26" s="62" t="s">
+        <v>77</v>
+      </c>
+      <c r="D26" s="30"/>
+      <c r="E26" s="63"/>
+      <c r="F26" s="63"/>
+      <c r="G26" s="26" t="s">
+        <v>77</v>
       </c>
       <c r="H26" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="I26" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="J26" s="28" t="e">
+      <c r="I26" s="27" t="e">
+        <f t="array" ref="I26">_xlfn.IFS(H26="Estatutário","Estatutário",H26="Outro","Outro",H26="Substituto","Outro",H26="Visitante","Outro")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J26" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="K26" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="L26" s="28" t="e">
         <f t="shared" ca="1" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K26" s="29"/>
-      <c r="L26" s="29"/>
       <c r="M26" s="29"/>
-      <c r="N26" s="28"/>
-      <c r="O26" s="28"/>
-      <c r="P26" s="28"/>
+      <c r="N26" s="29"/>
+      <c r="O26" s="29"/>
+      <c r="P26" s="29"/>
       <c r="Q26" s="28"/>
       <c r="R26" s="28"/>
       <c r="S26" s="28"/>
@@ -2988,44 +3094,47 @@
       <c r="V26" s="28"/>
       <c r="W26" s="28"/>
       <c r="X26" s="28"/>
-      <c r="Y26" s="30">
+      <c r="Y26" s="28"/>
+      <c r="Z26" s="28"/>
+      <c r="AA26" s="28"/>
+      <c r="AB26" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="38"/>
-      <c r="B27" s="62" t="s">
-        <v>77</v>
-      </c>
-      <c r="C27" s="30"/>
-      <c r="D27" s="63"/>
-      <c r="E27" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="F27" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="G27" s="27" t="e">
-        <f t="array" ref="G27">_xlfn.IFS(F27="Estatutário","Estatutário",F27="Outro","Outro",F27="Substituto","Outro",F27="Visitante","Outro")</f>
-        <v>#N/A</v>
+      <c r="B27" s="38"/>
+      <c r="C27" s="62" t="s">
+        <v>77</v>
+      </c>
+      <c r="D27" s="30"/>
+      <c r="E27" s="63"/>
+      <c r="F27" s="63"/>
+      <c r="G27" s="26" t="s">
+        <v>77</v>
       </c>
       <c r="H27" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="I27" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="J27" s="28" t="e">
+      <c r="I27" s="27" t="e">
+        <f t="array" ref="I27">_xlfn.IFS(H27="Estatutário","Estatutário",H27="Outro","Outro",H27="Substituto","Outro",H27="Visitante","Outro")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J27" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="K27" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="L27" s="28" t="e">
         <f t="shared" ca="1" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K27" s="29"/>
-      <c r="L27" s="29"/>
       <c r="M27" s="29"/>
-      <c r="N27" s="28"/>
-      <c r="O27" s="28"/>
-      <c r="P27" s="28"/>
+      <c r="N27" s="29"/>
+      <c r="O27" s="29"/>
+      <c r="P27" s="29"/>
       <c r="Q27" s="28"/>
       <c r="R27" s="28"/>
       <c r="S27" s="28"/>
@@ -3034,44 +3143,47 @@
       <c r="V27" s="28"/>
       <c r="W27" s="28"/>
       <c r="X27" s="28"/>
-      <c r="Y27" s="30">
+      <c r="Y27" s="28"/>
+      <c r="Z27" s="28"/>
+      <c r="AA27" s="28"/>
+      <c r="AB27" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="38"/>
-      <c r="B28" s="62" t="s">
-        <v>77</v>
-      </c>
-      <c r="C28" s="30"/>
-      <c r="D28" s="63"/>
-      <c r="E28" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="F28" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="G28" s="27" t="e">
-        <f t="array" ref="G28">_xlfn.IFS(F28="Estatutário","Estatutário",F28="Outro","Outro",F28="Substituto","Outro",F28="Visitante","Outro")</f>
-        <v>#N/A</v>
+      <c r="B28" s="38"/>
+      <c r="C28" s="62" t="s">
+        <v>77</v>
+      </c>
+      <c r="D28" s="30"/>
+      <c r="E28" s="63"/>
+      <c r="F28" s="63"/>
+      <c r="G28" s="26" t="s">
+        <v>77</v>
       </c>
       <c r="H28" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="I28" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="J28" s="28" t="e">
+      <c r="I28" s="27" t="e">
+        <f t="array" ref="I28">_xlfn.IFS(H28="Estatutário","Estatutário",H28="Outro","Outro",H28="Substituto","Outro",H28="Visitante","Outro")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J28" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="K28" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="L28" s="28" t="e">
         <f t="shared" ca="1" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K28" s="29"/>
-      <c r="L28" s="29"/>
       <c r="M28" s="29"/>
-      <c r="N28" s="28"/>
-      <c r="O28" s="28"/>
-      <c r="P28" s="28"/>
+      <c r="N28" s="29"/>
+      <c r="O28" s="29"/>
+      <c r="P28" s="29"/>
       <c r="Q28" s="28"/>
       <c r="R28" s="28"/>
       <c r="S28" s="28"/>
@@ -3080,44 +3192,47 @@
       <c r="V28" s="28"/>
       <c r="W28" s="28"/>
       <c r="X28" s="28"/>
-      <c r="Y28" s="30">
+      <c r="Y28" s="28"/>
+      <c r="Z28" s="28"/>
+      <c r="AA28" s="28"/>
+      <c r="AB28" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="38"/>
-      <c r="B29" s="62" t="s">
-        <v>77</v>
-      </c>
-      <c r="C29" s="30"/>
-      <c r="D29" s="63"/>
-      <c r="E29" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="F29" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="G29" s="27" t="e">
-        <f t="array" ref="G29">_xlfn.IFS(F29="Estatutário","Estatutário",F29="Outro","Outro",F29="Substituto","Outro",F29="Visitante","Outro")</f>
-        <v>#N/A</v>
+      <c r="B29" s="38"/>
+      <c r="C29" s="62" t="s">
+        <v>77</v>
+      </c>
+      <c r="D29" s="30"/>
+      <c r="E29" s="63"/>
+      <c r="F29" s="63"/>
+      <c r="G29" s="26" t="s">
+        <v>77</v>
       </c>
       <c r="H29" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="I29" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="J29" s="28" t="e">
+      <c r="I29" s="27" t="e">
+        <f t="array" ref="I29">_xlfn.IFS(H29="Estatutário","Estatutário",H29="Outro","Outro",H29="Substituto","Outro",H29="Visitante","Outro")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J29" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="K29" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="L29" s="28" t="e">
         <f t="shared" ca="1" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K29" s="29"/>
-      <c r="L29" s="29"/>
       <c r="M29" s="29"/>
-      <c r="N29" s="28"/>
-      <c r="O29" s="28"/>
-      <c r="P29" s="28"/>
+      <c r="N29" s="29"/>
+      <c r="O29" s="29"/>
+      <c r="P29" s="29"/>
       <c r="Q29" s="28"/>
       <c r="R29" s="28"/>
       <c r="S29" s="28"/>
@@ -3126,44 +3241,47 @@
       <c r="V29" s="28"/>
       <c r="W29" s="28"/>
       <c r="X29" s="28"/>
-      <c r="Y29" s="30">
+      <c r="Y29" s="28"/>
+      <c r="Z29" s="28"/>
+      <c r="AA29" s="28"/>
+      <c r="AB29" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:25" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:28" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="53"/>
-      <c r="B30" s="62" t="s">
-        <v>77</v>
-      </c>
-      <c r="C30" s="72"/>
-      <c r="D30" s="73"/>
-      <c r="E30" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="F30" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="G30" s="74" t="e">
-        <f t="array" ref="G30">_xlfn.IFS(F30="Estatutário","Estatutário",F30="Outro","Outro",F30="Substituto","Outro",F30="Visitante","Outro")</f>
-        <v>#N/A</v>
+      <c r="B30" s="53"/>
+      <c r="C30" s="62" t="s">
+        <v>77</v>
+      </c>
+      <c r="D30" s="72"/>
+      <c r="E30" s="73"/>
+      <c r="F30" s="76"/>
+      <c r="G30" s="26" t="s">
+        <v>77</v>
       </c>
       <c r="H30" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="I30" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="J30" s="51" t="e">
+      <c r="I30" s="74" t="e">
+        <f t="array" ref="I30">_xlfn.IFS(H30="Estatutário","Estatutário",H30="Outro","Outro",H30="Substituto","Outro",H30="Visitante","Outro")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J30" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="K30" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="L30" s="51" t="e">
         <f t="shared" ca="1" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K30" s="24"/>
-      <c r="L30" s="24"/>
       <c r="M30" s="24"/>
-      <c r="N30" s="39"/>
-      <c r="O30" s="39"/>
-      <c r="P30" s="39"/>
+      <c r="N30" s="24"/>
+      <c r="O30" s="24"/>
+      <c r="P30" s="24"/>
       <c r="Q30" s="39"/>
       <c r="R30" s="39"/>
       <c r="S30" s="39"/>
@@ -3172,44 +3290,47 @@
       <c r="V30" s="39"/>
       <c r="W30" s="39"/>
       <c r="X30" s="39"/>
-      <c r="Y30" s="50">
+      <c r="Y30" s="39"/>
+      <c r="Z30" s="39"/>
+      <c r="AA30" s="39"/>
+      <c r="AB30" s="50">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="38"/>
-      <c r="B31" s="62" t="s">
-        <v>77</v>
-      </c>
-      <c r="C31" s="30"/>
-      <c r="D31" s="63"/>
-      <c r="E31" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="F31" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="G31" s="27" t="e">
-        <f t="array" ref="G31">_xlfn.IFS(F31="Estatutário","Estatutário",F31="Outro","Outro",F31="Substituto","Outro",F31="Visitante","Outro")</f>
-        <v>#N/A</v>
+      <c r="B31" s="38"/>
+      <c r="C31" s="62" t="s">
+        <v>77</v>
+      </c>
+      <c r="D31" s="30"/>
+      <c r="E31" s="63"/>
+      <c r="F31" s="63"/>
+      <c r="G31" s="26" t="s">
+        <v>77</v>
       </c>
       <c r="H31" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="I31" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="J31" s="28" t="e">
+      <c r="I31" s="27" t="e">
+        <f t="array" ref="I31">_xlfn.IFS(H31="Estatutário","Estatutário",H31="Outro","Outro",H31="Substituto","Outro",H31="Visitante","Outro")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J31" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="K31" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="L31" s="28" t="e">
         <f t="shared" ca="1" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K31" s="29"/>
-      <c r="L31" s="29"/>
       <c r="M31" s="29"/>
-      <c r="N31" s="28"/>
-      <c r="O31" s="28"/>
-      <c r="P31" s="28"/>
+      <c r="N31" s="29"/>
+      <c r="O31" s="29"/>
+      <c r="P31" s="29"/>
       <c r="Q31" s="28"/>
       <c r="R31" s="28"/>
       <c r="S31" s="28"/>
@@ -3218,44 +3339,47 @@
       <c r="V31" s="28"/>
       <c r="W31" s="28"/>
       <c r="X31" s="28"/>
-      <c r="Y31" s="30">
+      <c r="Y31" s="28"/>
+      <c r="Z31" s="28"/>
+      <c r="AA31" s="28"/>
+      <c r="AB31" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="38"/>
-      <c r="B32" s="62" t="s">
-        <v>77</v>
-      </c>
-      <c r="C32" s="36"/>
-      <c r="D32" s="63"/>
-      <c r="E32" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="F32" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="G32" s="27" t="e">
-        <f t="array" ref="G32">_xlfn.IFS(F32="Estatutário","Estatutário",F32="Outro","Outro",F32="Substituto","Outro",F32="Visitante","Outro")</f>
-        <v>#N/A</v>
+      <c r="B32" s="38"/>
+      <c r="C32" s="62" t="s">
+        <v>77</v>
+      </c>
+      <c r="D32" s="36"/>
+      <c r="E32" s="63"/>
+      <c r="F32" s="63"/>
+      <c r="G32" s="26" t="s">
+        <v>77</v>
       </c>
       <c r="H32" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="I32" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="J32" s="28" t="e">
+      <c r="I32" s="27" t="e">
+        <f t="array" ref="I32">_xlfn.IFS(H32="Estatutário","Estatutário",H32="Outro","Outro",H32="Substituto","Outro",H32="Visitante","Outro")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J32" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="K32" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="L32" s="28" t="e">
         <f t="shared" ca="1" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K32" s="29"/>
-      <c r="L32" s="29"/>
       <c r="M32" s="29"/>
-      <c r="N32" s="28"/>
-      <c r="O32" s="28"/>
-      <c r="P32" s="28"/>
+      <c r="N32" s="29"/>
+      <c r="O32" s="29"/>
+      <c r="P32" s="29"/>
       <c r="Q32" s="28"/>
       <c r="R32" s="28"/>
       <c r="S32" s="28"/>
@@ -3264,44 +3388,47 @@
       <c r="V32" s="28"/>
       <c r="W32" s="28"/>
       <c r="X32" s="28"/>
-      <c r="Y32" s="30">
+      <c r="Y32" s="28"/>
+      <c r="Z32" s="28"/>
+      <c r="AA32" s="28"/>
+      <c r="AB32" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="46"/>
-      <c r="B33" s="62" t="s">
-        <v>77</v>
-      </c>
-      <c r="C33" s="59"/>
-      <c r="D33" s="65"/>
-      <c r="E33" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="F33" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="G33" s="47" t="e">
-        <f t="array" ref="G33">_xlfn.IFS(F33="Estatutário","Estatutário",F33="Outro","Outro",F33="Substituto","Outro",F33="Visitante","Outro")</f>
-        <v>#N/A</v>
+      <c r="B33" s="46"/>
+      <c r="C33" s="62" t="s">
+        <v>77</v>
+      </c>
+      <c r="D33" s="59"/>
+      <c r="E33" s="65"/>
+      <c r="F33" s="65"/>
+      <c r="G33" s="26" t="s">
+        <v>77</v>
       </c>
       <c r="H33" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="I33" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="J33" s="28" t="e">
-        <f t="shared" ref="J33:J34" ca="1" si="8">DATEDIF(I33,TODAY(),"M")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K33" s="48"/>
-      <c r="L33" s="48"/>
+      <c r="I33" s="47" t="e">
+        <f t="array" ref="I33">_xlfn.IFS(H33="Estatutário","Estatutário",H33="Outro","Outro",H33="Substituto","Outro",H33="Visitante","Outro")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J33" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="K33" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="L33" s="28" t="e">
+        <f t="shared" ref="L33:L34" ca="1" si="8">DATEDIF(K33,TODAY(),"M")</f>
+        <v>#VALUE!</v>
+      </c>
       <c r="M33" s="48"/>
-      <c r="N33" s="49"/>
-      <c r="O33" s="49"/>
-      <c r="P33" s="49"/>
+      <c r="N33" s="48"/>
+      <c r="O33" s="48"/>
+      <c r="P33" s="48"/>
       <c r="Q33" s="49"/>
       <c r="R33" s="49"/>
       <c r="S33" s="49"/>
@@ -3310,44 +3437,47 @@
       <c r="V33" s="49"/>
       <c r="W33" s="49"/>
       <c r="X33" s="49"/>
-      <c r="Y33" s="30">
-        <f t="shared" ref="Y33:Y34" si="9">SUM(N33:X33)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y33" s="49"/>
+      <c r="Z33" s="49"/>
+      <c r="AA33" s="49"/>
+      <c r="AB33" s="30">
+        <f t="shared" ref="AB33:AB34" si="9">SUM(Q33:AA33)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="46"/>
-      <c r="B34" s="62" t="s">
-        <v>77</v>
-      </c>
-      <c r="C34" s="59"/>
-      <c r="D34" s="65"/>
-      <c r="E34" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="F34" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="G34" s="47" t="e">
-        <f t="array" ref="G34">_xlfn.IFS(F34="Estatutário","Estatutário",F34="Outro","Outro",F34="Substituto","Outro",F34="Visitante","Outro")</f>
-        <v>#N/A</v>
+      <c r="B34" s="46"/>
+      <c r="C34" s="62" t="s">
+        <v>77</v>
+      </c>
+      <c r="D34" s="59"/>
+      <c r="E34" s="65"/>
+      <c r="F34" s="65"/>
+      <c r="G34" s="26" t="s">
+        <v>77</v>
       </c>
       <c r="H34" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="I34" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="J34" s="28" t="e">
+      <c r="I34" s="47" t="e">
+        <f t="array" ref="I34">_xlfn.IFS(H34="Estatutário","Estatutário",H34="Outro","Outro",H34="Substituto","Outro",H34="Visitante","Outro")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J34" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="K34" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="L34" s="28" t="e">
         <f t="shared" ca="1" si="8"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K34" s="48"/>
-      <c r="L34" s="48"/>
       <c r="M34" s="48"/>
-      <c r="N34" s="49"/>
-      <c r="O34" s="49"/>
-      <c r="P34" s="49"/>
+      <c r="N34" s="48"/>
+      <c r="O34" s="48"/>
+      <c r="P34" s="48"/>
       <c r="Q34" s="49"/>
       <c r="R34" s="49"/>
       <c r="S34" s="49"/>
@@ -3356,44 +3486,47 @@
       <c r="V34" s="49"/>
       <c r="W34" s="49"/>
       <c r="X34" s="49"/>
-      <c r="Y34" s="30">
+      <c r="Y34" s="49"/>
+      <c r="Z34" s="49"/>
+      <c r="AA34" s="49"/>
+      <c r="AB34" s="30">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="38"/>
-      <c r="B35" s="62" t="s">
-        <v>77</v>
-      </c>
-      <c r="C35" s="36"/>
-      <c r="D35" s="63"/>
-      <c r="E35" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="F35" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="G35" s="27" t="e">
-        <f t="array" ref="G35">_xlfn.IFS(F35="Estatutário","Estatutário",F35="Outro","Outro",F35="Substituto","Outro",F35="Visitante","Outro")</f>
-        <v>#N/A</v>
+      <c r="B35" s="38"/>
+      <c r="C35" s="62" t="s">
+        <v>77</v>
+      </c>
+      <c r="D35" s="36"/>
+      <c r="E35" s="63"/>
+      <c r="F35" s="63"/>
+      <c r="G35" s="26" t="s">
+        <v>77</v>
       </c>
       <c r="H35" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="I35" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="J35" s="28" t="e">
+      <c r="I35" s="27" t="e">
+        <f t="array" ref="I35">_xlfn.IFS(H35="Estatutário","Estatutário",H35="Outro","Outro",H35="Substituto","Outro",H35="Visitante","Outro")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J35" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="K35" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="L35" s="28" t="e">
         <f t="shared" ca="1" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K35" s="29"/>
-      <c r="L35" s="29"/>
       <c r="M35" s="29"/>
-      <c r="N35" s="28"/>
-      <c r="O35" s="28"/>
-      <c r="P35" s="28"/>
+      <c r="N35" s="29"/>
+      <c r="O35" s="29"/>
+      <c r="P35" s="29"/>
       <c r="Q35" s="28"/>
       <c r="R35" s="28"/>
       <c r="S35" s="28"/>
@@ -3402,44 +3535,47 @@
       <c r="V35" s="28"/>
       <c r="W35" s="28"/>
       <c r="X35" s="28"/>
-      <c r="Y35" s="30">
+      <c r="Y35" s="28"/>
+      <c r="Z35" s="28"/>
+      <c r="AA35" s="28"/>
+      <c r="AB35" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="38"/>
-      <c r="B36" s="62" t="s">
-        <v>77</v>
-      </c>
-      <c r="C36" s="30"/>
-      <c r="D36" s="63"/>
-      <c r="E36" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="F36" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="G36" s="27" t="e">
-        <f t="array" ref="G36">_xlfn.IFS(F36="Estatutário","Estatutário",F36="Outro","Outro",F36="Substituto","Outro",F36="Visitante","Outro")</f>
-        <v>#N/A</v>
+      <c r="B36" s="38"/>
+      <c r="C36" s="62" t="s">
+        <v>77</v>
+      </c>
+      <c r="D36" s="30"/>
+      <c r="E36" s="63"/>
+      <c r="F36" s="63"/>
+      <c r="G36" s="26" t="s">
+        <v>77</v>
       </c>
       <c r="H36" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="I36" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="J36" s="28" t="e">
-        <f t="shared" ref="J36:J65" ca="1" si="10">DATEDIF(I36,TODAY(),"M")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K36" s="29"/>
-      <c r="L36" s="29"/>
+      <c r="I36" s="27" t="e">
+        <f t="array" ref="I36">_xlfn.IFS(H36="Estatutário","Estatutário",H36="Outro","Outro",H36="Substituto","Outro",H36="Visitante","Outro")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J36" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="K36" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="L36" s="28" t="e">
+        <f t="shared" ref="L36:L65" ca="1" si="10">DATEDIF(K36,TODAY(),"M")</f>
+        <v>#VALUE!</v>
+      </c>
       <c r="M36" s="29"/>
-      <c r="N36" s="28"/>
-      <c r="O36" s="28"/>
-      <c r="P36" s="28"/>
+      <c r="N36" s="29"/>
+      <c r="O36" s="29"/>
+      <c r="P36" s="29"/>
       <c r="Q36" s="28"/>
       <c r="R36" s="28"/>
       <c r="S36" s="28"/>
@@ -3448,44 +3584,47 @@
       <c r="V36" s="28"/>
       <c r="W36" s="28"/>
       <c r="X36" s="28"/>
-      <c r="Y36" s="30">
-        <f t="shared" ref="Y36:Y65" si="11">SUM(N36:X36)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:25" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y36" s="28"/>
+      <c r="Z36" s="28"/>
+      <c r="AA36" s="28"/>
+      <c r="AB36" s="30">
+        <f t="shared" ref="AB36:AB65" si="11">SUM(Q36:AA36)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:28" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="46"/>
-      <c r="B37" s="62" t="s">
-        <v>77</v>
-      </c>
-      <c r="C37" s="59"/>
-      <c r="D37" s="65"/>
-      <c r="E37" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="F37" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="G37" s="47" t="e">
-        <f t="array" ref="G37">_xlfn.IFS(F37="Estatutário","Estatutário",F37="Outro","Outro",F37="Substituto","Outro",F37="Visitante","Outro")</f>
-        <v>#N/A</v>
+      <c r="B37" s="46"/>
+      <c r="C37" s="62" t="s">
+        <v>77</v>
+      </c>
+      <c r="D37" s="59"/>
+      <c r="E37" s="65"/>
+      <c r="F37" s="65"/>
+      <c r="G37" s="26" t="s">
+        <v>77</v>
       </c>
       <c r="H37" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="I37" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="J37" s="51" t="e">
+      <c r="I37" s="47" t="e">
+        <f t="array" ref="I37">_xlfn.IFS(H37="Estatutário","Estatutário",H37="Outro","Outro",H37="Substituto","Outro",H37="Visitante","Outro")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J37" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="K37" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="L37" s="51" t="e">
         <f t="shared" ca="1" si="10"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K37" s="48"/>
-      <c r="L37" s="48"/>
       <c r="M37" s="48"/>
-      <c r="N37" s="49"/>
-      <c r="O37" s="49"/>
-      <c r="P37" s="49"/>
+      <c r="N37" s="48"/>
+      <c r="O37" s="48"/>
+      <c r="P37" s="48"/>
       <c r="Q37" s="49"/>
       <c r="R37" s="49"/>
       <c r="S37" s="49"/>
@@ -3494,44 +3633,47 @@
       <c r="V37" s="49"/>
       <c r="W37" s="49"/>
       <c r="X37" s="49"/>
-      <c r="Y37" s="50">
+      <c r="Y37" s="49"/>
+      <c r="Z37" s="49"/>
+      <c r="AA37" s="49"/>
+      <c r="AB37" s="50">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="38"/>
-      <c r="B38" s="62" t="s">
-        <v>77</v>
-      </c>
-      <c r="C38" s="30"/>
-      <c r="D38" s="63"/>
-      <c r="E38" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="F38" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="G38" s="27" t="e">
-        <f t="array" ref="G38">_xlfn.IFS(F38="Estatutário","Estatutário",F38="Outro","Outro",F38="Substituto","Outro",F38="Visitante","Outro")</f>
-        <v>#N/A</v>
+      <c r="B38" s="38"/>
+      <c r="C38" s="62" t="s">
+        <v>77</v>
+      </c>
+      <c r="D38" s="30"/>
+      <c r="E38" s="63"/>
+      <c r="F38" s="63"/>
+      <c r="G38" s="26" t="s">
+        <v>77</v>
       </c>
       <c r="H38" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="I38" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="J38" s="28" t="e">
+      <c r="I38" s="27" t="e">
+        <f t="array" ref="I38">_xlfn.IFS(H38="Estatutário","Estatutário",H38="Outro","Outro",H38="Substituto","Outro",H38="Visitante","Outro")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J38" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="K38" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="L38" s="28" t="e">
         <f t="shared" ca="1" si="10"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K38" s="29"/>
-      <c r="L38" s="29"/>
       <c r="M38" s="29"/>
-      <c r="N38" s="28"/>
-      <c r="O38" s="28"/>
-      <c r="P38" s="28"/>
+      <c r="N38" s="29"/>
+      <c r="O38" s="29"/>
+      <c r="P38" s="29"/>
       <c r="Q38" s="28"/>
       <c r="R38" s="28"/>
       <c r="S38" s="28"/>
@@ -3540,44 +3682,47 @@
       <c r="V38" s="28"/>
       <c r="W38" s="28"/>
       <c r="X38" s="28"/>
-      <c r="Y38" s="30">
+      <c r="Y38" s="28"/>
+      <c r="Z38" s="28"/>
+      <c r="AA38" s="28"/>
+      <c r="AB38" s="30">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="38"/>
-      <c r="B39" s="62" t="s">
-        <v>77</v>
-      </c>
-      <c r="C39" s="36"/>
-      <c r="D39" s="63"/>
-      <c r="E39" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="F39" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="G39" s="27" t="e">
-        <f t="array" ref="G39">_xlfn.IFS(F39="Estatutário","Estatutário",F39="Outro","Outro",F39="Substituto","Outro",F39="Visitante","Outro")</f>
-        <v>#N/A</v>
+      <c r="B39" s="38"/>
+      <c r="C39" s="62" t="s">
+        <v>77</v>
+      </c>
+      <c r="D39" s="36"/>
+      <c r="E39" s="63"/>
+      <c r="F39" s="63"/>
+      <c r="G39" s="26" t="s">
+        <v>77</v>
       </c>
       <c r="H39" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="I39" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="J39" s="28" t="e">
+      <c r="I39" s="27" t="e">
+        <f t="array" ref="I39">_xlfn.IFS(H39="Estatutário","Estatutário",H39="Outro","Outro",H39="Substituto","Outro",H39="Visitante","Outro")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J39" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="K39" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="L39" s="28" t="e">
         <f t="shared" ca="1" si="10"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K39" s="29"/>
-      <c r="L39" s="29"/>
       <c r="M39" s="29"/>
-      <c r="N39" s="28"/>
-      <c r="O39" s="28"/>
-      <c r="P39" s="28"/>
+      <c r="N39" s="29"/>
+      <c r="O39" s="29"/>
+      <c r="P39" s="29"/>
       <c r="Q39" s="28"/>
       <c r="R39" s="28"/>
       <c r="S39" s="28"/>
@@ -3586,44 +3731,47 @@
       <c r="V39" s="28"/>
       <c r="W39" s="28"/>
       <c r="X39" s="28"/>
-      <c r="Y39" s="30">
+      <c r="Y39" s="28"/>
+      <c r="Z39" s="28"/>
+      <c r="AA39" s="28"/>
+      <c r="AB39" s="30">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:25" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:28" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="46"/>
-      <c r="B40" s="62" t="s">
-        <v>77</v>
-      </c>
-      <c r="C40" s="59"/>
-      <c r="D40" s="65"/>
-      <c r="E40" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="F40" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="G40" s="47" t="e">
-        <f t="array" ref="G40">_xlfn.IFS(F40="Estatutário","Estatutário",F40="Outro","Outro",F40="Substituto","Outro",F40="Visitante","Outro")</f>
-        <v>#N/A</v>
+      <c r="B40" s="46"/>
+      <c r="C40" s="62" t="s">
+        <v>77</v>
+      </c>
+      <c r="D40" s="59"/>
+      <c r="E40" s="65"/>
+      <c r="F40" s="65"/>
+      <c r="G40" s="26" t="s">
+        <v>77</v>
       </c>
       <c r="H40" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="I40" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="J40" s="51" t="e">
+      <c r="I40" s="47" t="e">
+        <f t="array" ref="I40">_xlfn.IFS(H40="Estatutário","Estatutário",H40="Outro","Outro",H40="Substituto","Outro",H40="Visitante","Outro")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J40" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="K40" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="L40" s="51" t="e">
         <f t="shared" ca="1" si="10"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K40" s="48"/>
-      <c r="L40" s="48"/>
       <c r="M40" s="48"/>
-      <c r="N40" s="49"/>
-      <c r="O40" s="49"/>
-      <c r="P40" s="49"/>
+      <c r="N40" s="48"/>
+      <c r="O40" s="48"/>
+      <c r="P40" s="48"/>
       <c r="Q40" s="49"/>
       <c r="R40" s="49"/>
       <c r="S40" s="49"/>
@@ -3632,44 +3780,47 @@
       <c r="V40" s="49"/>
       <c r="W40" s="49"/>
       <c r="X40" s="49"/>
-      <c r="Y40" s="50">
+      <c r="Y40" s="49"/>
+      <c r="Z40" s="49"/>
+      <c r="AA40" s="49"/>
+      <c r="AB40" s="50">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:25" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:28" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="40"/>
-      <c r="B41" s="62" t="s">
-        <v>77</v>
-      </c>
-      <c r="C41" s="54"/>
-      <c r="D41" s="71"/>
-      <c r="E41" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="F41" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="G41" s="55" t="e">
-        <f t="array" ref="G41">_xlfn.IFS(F41="Estatutário","Estatutário",F41="Outro","Outro",F41="Substituto","Outro",F41="Visitante","Outro")</f>
-        <v>#N/A</v>
+      <c r="B41" s="40"/>
+      <c r="C41" s="62" t="s">
+        <v>77</v>
+      </c>
+      <c r="D41" s="54"/>
+      <c r="E41" s="71"/>
+      <c r="F41" s="71"/>
+      <c r="G41" s="26" t="s">
+        <v>77</v>
       </c>
       <c r="H41" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="I41" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="J41" s="56" t="e">
+      <c r="I41" s="55" t="e">
+        <f t="array" ref="I41">_xlfn.IFS(H41="Estatutário","Estatutário",H41="Outro","Outro",H41="Substituto","Outro",H41="Visitante","Outro")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J41" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="K41" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="L41" s="56" t="e">
         <f t="shared" ca="1" si="10"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K41" s="55"/>
-      <c r="L41" s="55"/>
       <c r="M41" s="55"/>
-      <c r="N41" s="56"/>
-      <c r="O41" s="56"/>
-      <c r="P41" s="56"/>
+      <c r="N41" s="55"/>
+      <c r="O41" s="55"/>
+      <c r="P41" s="55"/>
       <c r="Q41" s="56"/>
       <c r="R41" s="56"/>
       <c r="S41" s="56"/>
@@ -3678,44 +3829,47 @@
       <c r="V41" s="56"/>
       <c r="W41" s="56"/>
       <c r="X41" s="56"/>
-      <c r="Y41" s="54">
+      <c r="Y41" s="56"/>
+      <c r="Z41" s="56"/>
+      <c r="AA41" s="56"/>
+      <c r="AB41" s="54">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="38"/>
-      <c r="B42" s="62" t="s">
-        <v>77</v>
-      </c>
-      <c r="C42" s="36"/>
-      <c r="D42" s="63"/>
-      <c r="E42" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="F42" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="G42" s="27" t="e">
-        <f t="array" ref="G42">_xlfn.IFS(F42="Estatutário","Estatutário",F42="Outro","Outro",F42="Substituto","Outro",F42="Visitante","Outro")</f>
-        <v>#N/A</v>
+      <c r="B42" s="38"/>
+      <c r="C42" s="62" t="s">
+        <v>77</v>
+      </c>
+      <c r="D42" s="36"/>
+      <c r="E42" s="63"/>
+      <c r="F42" s="63"/>
+      <c r="G42" s="26" t="s">
+        <v>77</v>
       </c>
       <c r="H42" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="I42" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="J42" s="28" t="e">
+      <c r="I42" s="27" t="e">
+        <f t="array" ref="I42">_xlfn.IFS(H42="Estatutário","Estatutário",H42="Outro","Outro",H42="Substituto","Outro",H42="Visitante","Outro")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J42" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="K42" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="L42" s="28" t="e">
         <f t="shared" ca="1" si="10"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K42" s="29"/>
-      <c r="L42" s="29"/>
       <c r="M42" s="29"/>
-      <c r="N42" s="28"/>
-      <c r="O42" s="28"/>
-      <c r="P42" s="28"/>
+      <c r="N42" s="29"/>
+      <c r="O42" s="29"/>
+      <c r="P42" s="29"/>
       <c r="Q42" s="28"/>
       <c r="R42" s="28"/>
       <c r="S42" s="28"/>
@@ -3724,44 +3878,47 @@
       <c r="V42" s="28"/>
       <c r="W42" s="28"/>
       <c r="X42" s="28"/>
-      <c r="Y42" s="30">
+      <c r="Y42" s="28"/>
+      <c r="Z42" s="28"/>
+      <c r="AA42" s="28"/>
+      <c r="AB42" s="30">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="46"/>
-      <c r="B43" s="62" t="s">
-        <v>77</v>
-      </c>
-      <c r="C43" s="59"/>
-      <c r="D43" s="65"/>
-      <c r="E43" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="F43" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="G43" s="47" t="e">
-        <f t="array" ref="G43">_xlfn.IFS(F43="Estatutário","Estatutário",F43="Outro","Outro",F43="Substituto","Outro",F43="Visitante","Outro")</f>
-        <v>#N/A</v>
+      <c r="B43" s="46"/>
+      <c r="C43" s="62" t="s">
+        <v>77</v>
+      </c>
+      <c r="D43" s="59"/>
+      <c r="E43" s="65"/>
+      <c r="F43" s="65"/>
+      <c r="G43" s="26" t="s">
+        <v>77</v>
       </c>
       <c r="H43" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="I43" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="J43" s="28" t="e">
+      <c r="I43" s="47" t="e">
+        <f t="array" ref="I43">_xlfn.IFS(H43="Estatutário","Estatutário",H43="Outro","Outro",H43="Substituto","Outro",H43="Visitante","Outro")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J43" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="K43" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="L43" s="28" t="e">
         <f t="shared" ca="1" si="10"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K43" s="48"/>
-      <c r="L43" s="48"/>
       <c r="M43" s="48"/>
-      <c r="N43" s="49"/>
-      <c r="O43" s="49"/>
-      <c r="P43" s="49"/>
+      <c r="N43" s="48"/>
+      <c r="O43" s="48"/>
+      <c r="P43" s="48"/>
       <c r="Q43" s="49"/>
       <c r="R43" s="49"/>
       <c r="S43" s="49"/>
@@ -3770,44 +3927,47 @@
       <c r="V43" s="49"/>
       <c r="W43" s="49"/>
       <c r="X43" s="49"/>
-      <c r="Y43" s="30">
+      <c r="Y43" s="49"/>
+      <c r="Z43" s="49"/>
+      <c r="AA43" s="49"/>
+      <c r="AB43" s="30">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="38"/>
-      <c r="B44" s="62" t="s">
-        <v>77</v>
-      </c>
-      <c r="C44" s="30"/>
-      <c r="D44" s="63"/>
-      <c r="E44" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="F44" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="G44" s="27" t="e">
-        <f t="array" ref="G44">_xlfn.IFS(F44="Estatutário","Estatutário",F44="Outro","Outro",F44="Substituto","Outro",F44="Visitante","Outro")</f>
-        <v>#N/A</v>
+      <c r="B44" s="38"/>
+      <c r="C44" s="62" t="s">
+        <v>77</v>
+      </c>
+      <c r="D44" s="30"/>
+      <c r="E44" s="63"/>
+      <c r="F44" s="63"/>
+      <c r="G44" s="26" t="s">
+        <v>77</v>
       </c>
       <c r="H44" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="I44" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="J44" s="28" t="e">
+      <c r="I44" s="27" t="e">
+        <f t="array" ref="I44">_xlfn.IFS(H44="Estatutário","Estatutário",H44="Outro","Outro",H44="Substituto","Outro",H44="Visitante","Outro")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J44" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="K44" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="L44" s="28" t="e">
         <f t="shared" ca="1" si="10"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K44" s="29"/>
-      <c r="L44" s="29"/>
       <c r="M44" s="29"/>
-      <c r="N44" s="28"/>
-      <c r="O44" s="28"/>
-      <c r="P44" s="28"/>
+      <c r="N44" s="29"/>
+      <c r="O44" s="29"/>
+      <c r="P44" s="29"/>
       <c r="Q44" s="28"/>
       <c r="R44" s="28"/>
       <c r="S44" s="28"/>
@@ -3816,44 +3976,47 @@
       <c r="V44" s="28"/>
       <c r="W44" s="28"/>
       <c r="X44" s="28"/>
-      <c r="Y44" s="30">
+      <c r="Y44" s="28"/>
+      <c r="Z44" s="28"/>
+      <c r="AA44" s="28"/>
+      <c r="AB44" s="30">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="38"/>
-      <c r="B45" s="62" t="s">
-        <v>77</v>
-      </c>
-      <c r="C45" s="30"/>
-      <c r="D45" s="63"/>
-      <c r="E45" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="F45" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="G45" s="27" t="e">
-        <f t="array" ref="G45">_xlfn.IFS(F45="Estatutário","Estatutário",F45="Outro","Outro",F45="Substituto","Outro",F45="Visitante","Outro")</f>
-        <v>#N/A</v>
+      <c r="B45" s="38"/>
+      <c r="C45" s="62" t="s">
+        <v>77</v>
+      </c>
+      <c r="D45" s="30"/>
+      <c r="E45" s="63"/>
+      <c r="F45" s="63"/>
+      <c r="G45" s="26" t="s">
+        <v>77</v>
       </c>
       <c r="H45" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="I45" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="J45" s="28" t="e">
+      <c r="I45" s="27" t="e">
+        <f t="array" ref="I45">_xlfn.IFS(H45="Estatutário","Estatutário",H45="Outro","Outro",H45="Substituto","Outro",H45="Visitante","Outro")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J45" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="K45" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="L45" s="28" t="e">
         <f t="shared" ca="1" si="10"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K45" s="29"/>
-      <c r="L45" s="29"/>
       <c r="M45" s="29"/>
-      <c r="N45" s="28"/>
-      <c r="O45" s="28"/>
-      <c r="P45" s="28"/>
+      <c r="N45" s="29"/>
+      <c r="O45" s="29"/>
+      <c r="P45" s="29"/>
       <c r="Q45" s="28"/>
       <c r="R45" s="28"/>
       <c r="S45" s="28"/>
@@ -3862,44 +4025,47 @@
       <c r="V45" s="28"/>
       <c r="W45" s="28"/>
       <c r="X45" s="28"/>
-      <c r="Y45" s="30">
+      <c r="Y45" s="28"/>
+      <c r="Z45" s="28"/>
+      <c r="AA45" s="28"/>
+      <c r="AB45" s="30">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="38"/>
-      <c r="B46" s="62" t="s">
-        <v>77</v>
-      </c>
-      <c r="C46" s="36"/>
-      <c r="D46" s="63"/>
-      <c r="E46" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="F46" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="G46" s="27" t="e">
-        <f t="array" ref="G46">_xlfn.IFS(F46="Estatutário","Estatutário",F46="Outro","Outro",F46="Substituto","Outro",F46="Visitante","Outro")</f>
-        <v>#N/A</v>
+      <c r="B46" s="38"/>
+      <c r="C46" s="62" t="s">
+        <v>77</v>
+      </c>
+      <c r="D46" s="36"/>
+      <c r="E46" s="63"/>
+      <c r="F46" s="63"/>
+      <c r="G46" s="26" t="s">
+        <v>77</v>
       </c>
       <c r="H46" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="I46" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="J46" s="28" t="e">
+      <c r="I46" s="27" t="e">
+        <f t="array" ref="I46">_xlfn.IFS(H46="Estatutário","Estatutário",H46="Outro","Outro",H46="Substituto","Outro",H46="Visitante","Outro")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J46" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="K46" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="L46" s="28" t="e">
         <f t="shared" ca="1" si="10"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K46" s="29"/>
-      <c r="L46" s="29"/>
       <c r="M46" s="29"/>
-      <c r="N46" s="28"/>
-      <c r="O46" s="28"/>
-      <c r="P46" s="28"/>
+      <c r="N46" s="29"/>
+      <c r="O46" s="29"/>
+      <c r="P46" s="29"/>
       <c r="Q46" s="28"/>
       <c r="R46" s="28"/>
       <c r="S46" s="28"/>
@@ -3908,44 +4074,47 @@
       <c r="V46" s="28"/>
       <c r="W46" s="28"/>
       <c r="X46" s="28"/>
-      <c r="Y46" s="30">
+      <c r="Y46" s="28"/>
+      <c r="Z46" s="28"/>
+      <c r="AA46" s="28"/>
+      <c r="AB46" s="30">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="38"/>
-      <c r="B47" s="62" t="s">
-        <v>77</v>
-      </c>
-      <c r="C47" s="30"/>
-      <c r="D47" s="63"/>
-      <c r="E47" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="F47" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="G47" s="27" t="e">
-        <f t="array" ref="G47">_xlfn.IFS(F47="Estatutário","Estatutário",F47="Outro","Outro",F47="Substituto","Outro",F47="Visitante","Outro")</f>
-        <v>#N/A</v>
+      <c r="B47" s="38"/>
+      <c r="C47" s="62" t="s">
+        <v>77</v>
+      </c>
+      <c r="D47" s="30"/>
+      <c r="E47" s="63"/>
+      <c r="F47" s="63"/>
+      <c r="G47" s="26" t="s">
+        <v>77</v>
       </c>
       <c r="H47" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="I47" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="J47" s="28" t="e">
+      <c r="I47" s="27" t="e">
+        <f t="array" ref="I47">_xlfn.IFS(H47="Estatutário","Estatutário",H47="Outro","Outro",H47="Substituto","Outro",H47="Visitante","Outro")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J47" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="K47" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="L47" s="28" t="e">
         <f t="shared" ca="1" si="10"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K47" s="29"/>
-      <c r="L47" s="29"/>
       <c r="M47" s="29"/>
-      <c r="N47" s="28"/>
-      <c r="O47" s="28"/>
-      <c r="P47" s="28"/>
+      <c r="N47" s="29"/>
+      <c r="O47" s="29"/>
+      <c r="P47" s="29"/>
       <c r="Q47" s="28"/>
       <c r="R47" s="28"/>
       <c r="S47" s="28"/>
@@ -3954,44 +4123,47 @@
       <c r="V47" s="28"/>
       <c r="W47" s="28"/>
       <c r="X47" s="28"/>
-      <c r="Y47" s="30">
+      <c r="Y47" s="28"/>
+      <c r="Z47" s="28"/>
+      <c r="AA47" s="28"/>
+      <c r="AB47" s="30">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="38"/>
-      <c r="B48" s="62" t="s">
-        <v>77</v>
-      </c>
-      <c r="C48" s="36"/>
-      <c r="D48" s="63"/>
-      <c r="E48" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="F48" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="G48" s="27" t="e">
-        <f t="array" ref="G48">_xlfn.IFS(F48="Estatutário","Estatutário",F48="Outro","Outro",F48="Substituto","Outro",F48="Visitante","Outro")</f>
-        <v>#N/A</v>
+      <c r="B48" s="38"/>
+      <c r="C48" s="62" t="s">
+        <v>77</v>
+      </c>
+      <c r="D48" s="36"/>
+      <c r="E48" s="63"/>
+      <c r="F48" s="63"/>
+      <c r="G48" s="26" t="s">
+        <v>77</v>
       </c>
       <c r="H48" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="I48" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="J48" s="28" t="e">
+      <c r="I48" s="27" t="e">
+        <f t="array" ref="I48">_xlfn.IFS(H48="Estatutário","Estatutário",H48="Outro","Outro",H48="Substituto","Outro",H48="Visitante","Outro")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J48" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="K48" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="L48" s="28" t="e">
         <f t="shared" ca="1" si="10"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K48" s="29"/>
-      <c r="L48" s="29"/>
       <c r="M48" s="29"/>
-      <c r="N48" s="28"/>
-      <c r="O48" s="28"/>
-      <c r="P48" s="28"/>
+      <c r="N48" s="29"/>
+      <c r="O48" s="29"/>
+      <c r="P48" s="29"/>
       <c r="Q48" s="28"/>
       <c r="R48" s="28"/>
       <c r="S48" s="28"/>
@@ -4000,44 +4172,47 @@
       <c r="V48" s="28"/>
       <c r="W48" s="28"/>
       <c r="X48" s="28"/>
-      <c r="Y48" s="30">
+      <c r="Y48" s="28"/>
+      <c r="Z48" s="28"/>
+      <c r="AA48" s="28"/>
+      <c r="AB48" s="30">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="38"/>
-      <c r="B49" s="62" t="s">
-        <v>77</v>
-      </c>
-      <c r="C49" s="30"/>
-      <c r="D49" s="63"/>
-      <c r="E49" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="F49" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="G49" s="27" t="e">
-        <f t="array" ref="G49">_xlfn.IFS(F49="Estatutário","Estatutário",F49="Outro","Outro",F49="Substituto","Outro",F49="Visitante","Outro")</f>
-        <v>#N/A</v>
+      <c r="B49" s="38"/>
+      <c r="C49" s="62" t="s">
+        <v>77</v>
+      </c>
+      <c r="D49" s="30"/>
+      <c r="E49" s="63"/>
+      <c r="F49" s="63"/>
+      <c r="G49" s="26" t="s">
+        <v>77</v>
       </c>
       <c r="H49" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="I49" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="J49" s="28" t="e">
+      <c r="I49" s="27" t="e">
+        <f t="array" ref="I49">_xlfn.IFS(H49="Estatutário","Estatutário",H49="Outro","Outro",H49="Substituto","Outro",H49="Visitante","Outro")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J49" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="K49" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="L49" s="28" t="e">
         <f t="shared" ca="1" si="10"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K49" s="29"/>
-      <c r="L49" s="29"/>
       <c r="M49" s="29"/>
-      <c r="N49" s="28"/>
-      <c r="O49" s="28"/>
-      <c r="P49" s="28"/>
+      <c r="N49" s="29"/>
+      <c r="O49" s="29"/>
+      <c r="P49" s="29"/>
       <c r="Q49" s="28"/>
       <c r="R49" s="28"/>
       <c r="S49" s="28"/>
@@ -4046,44 +4221,47 @@
       <c r="V49" s="28"/>
       <c r="W49" s="28"/>
       <c r="X49" s="28"/>
-      <c r="Y49" s="30">
+      <c r="Y49" s="28"/>
+      <c r="Z49" s="28"/>
+      <c r="AA49" s="28"/>
+      <c r="AB49" s="30">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="38"/>
-      <c r="B50" s="62" t="s">
-        <v>77</v>
-      </c>
-      <c r="C50" s="30"/>
-      <c r="D50" s="63"/>
-      <c r="E50" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="F50" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="G50" s="27" t="e">
-        <f t="array" ref="G50">_xlfn.IFS(F50="Estatutário","Estatutário",F50="Outro","Outro",F50="Substituto","Outro",F50="Visitante","Outro")</f>
-        <v>#N/A</v>
+      <c r="B50" s="38"/>
+      <c r="C50" s="62" t="s">
+        <v>77</v>
+      </c>
+      <c r="D50" s="30"/>
+      <c r="E50" s="63"/>
+      <c r="F50" s="63"/>
+      <c r="G50" s="26" t="s">
+        <v>77</v>
       </c>
       <c r="H50" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="I50" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="J50" s="28" t="e">
+      <c r="I50" s="27" t="e">
+        <f t="array" ref="I50">_xlfn.IFS(H50="Estatutário","Estatutário",H50="Outro","Outro",H50="Substituto","Outro",H50="Visitante","Outro")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J50" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="K50" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="L50" s="28" t="e">
         <f t="shared" ca="1" si="10"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K50" s="29"/>
-      <c r="L50" s="29"/>
       <c r="M50" s="29"/>
-      <c r="N50" s="28"/>
-      <c r="O50" s="28"/>
-      <c r="P50" s="28"/>
+      <c r="N50" s="29"/>
+      <c r="O50" s="29"/>
+      <c r="P50" s="29"/>
       <c r="Q50" s="28"/>
       <c r="R50" s="28"/>
       <c r="S50" s="28"/>
@@ -4092,44 +4270,47 @@
       <c r="V50" s="28"/>
       <c r="W50" s="28"/>
       <c r="X50" s="28"/>
-      <c r="Y50" s="30">
+      <c r="Y50" s="28"/>
+      <c r="Z50" s="28"/>
+      <c r="AA50" s="28"/>
+      <c r="AB50" s="30">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="38"/>
-      <c r="B51" s="62" t="s">
-        <v>77</v>
-      </c>
-      <c r="C51" s="30"/>
-      <c r="D51" s="63"/>
-      <c r="E51" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="F51" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="G51" s="27" t="e">
-        <f t="array" ref="G51">_xlfn.IFS(F51="Estatutário","Estatutário",F51="Outro","Outro",F51="Substituto","Outro",F51="Visitante","Outro")</f>
-        <v>#N/A</v>
+      <c r="B51" s="38"/>
+      <c r="C51" s="62" t="s">
+        <v>77</v>
+      </c>
+      <c r="D51" s="30"/>
+      <c r="E51" s="63"/>
+      <c r="F51" s="63"/>
+      <c r="G51" s="26" t="s">
+        <v>77</v>
       </c>
       <c r="H51" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="I51" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="J51" s="28" t="e">
+      <c r="I51" s="27" t="e">
+        <f t="array" ref="I51">_xlfn.IFS(H51="Estatutário","Estatutário",H51="Outro","Outro",H51="Substituto","Outro",H51="Visitante","Outro")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J51" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="K51" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="L51" s="28" t="e">
         <f t="shared" ca="1" si="10"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K51" s="29"/>
-      <c r="L51" s="29"/>
       <c r="M51" s="29"/>
-      <c r="N51" s="28"/>
-      <c r="O51" s="28"/>
-      <c r="P51" s="28"/>
+      <c r="N51" s="29"/>
+      <c r="O51" s="29"/>
+      <c r="P51" s="29"/>
       <c r="Q51" s="28"/>
       <c r="R51" s="28"/>
       <c r="S51" s="28"/>
@@ -4138,44 +4319,47 @@
       <c r="V51" s="28"/>
       <c r="W51" s="28"/>
       <c r="X51" s="28"/>
-      <c r="Y51" s="30">
+      <c r="Y51" s="28"/>
+      <c r="Z51" s="28"/>
+      <c r="AA51" s="28"/>
+      <c r="AB51" s="30">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="38"/>
-      <c r="B52" s="62" t="s">
-        <v>77</v>
-      </c>
-      <c r="C52" s="36"/>
-      <c r="D52" s="63"/>
-      <c r="E52" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="F52" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="G52" s="27" t="e">
-        <f t="array" ref="G52">_xlfn.IFS(F52="Estatutário","Estatutário",F52="Outro","Outro",F52="Substituto","Outro",F52="Visitante","Outro")</f>
-        <v>#N/A</v>
+      <c r="B52" s="38"/>
+      <c r="C52" s="62" t="s">
+        <v>77</v>
+      </c>
+      <c r="D52" s="36"/>
+      <c r="E52" s="63"/>
+      <c r="F52" s="63"/>
+      <c r="G52" s="26" t="s">
+        <v>77</v>
       </c>
       <c r="H52" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="I52" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="J52" s="28" t="e">
+      <c r="I52" s="27" t="e">
+        <f t="array" ref="I52">_xlfn.IFS(H52="Estatutário","Estatutário",H52="Outro","Outro",H52="Substituto","Outro",H52="Visitante","Outro")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J52" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="K52" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="L52" s="28" t="e">
         <f t="shared" ca="1" si="10"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K52" s="29"/>
-      <c r="L52" s="29"/>
       <c r="M52" s="29"/>
-      <c r="N52" s="28"/>
-      <c r="O52" s="28"/>
-      <c r="P52" s="28"/>
+      <c r="N52" s="29"/>
+      <c r="O52" s="29"/>
+      <c r="P52" s="29"/>
       <c r="Q52" s="28"/>
       <c r="R52" s="28"/>
       <c r="S52" s="28"/>
@@ -4184,44 +4368,47 @@
       <c r="V52" s="28"/>
       <c r="W52" s="28"/>
       <c r="X52" s="28"/>
-      <c r="Y52" s="30">
+      <c r="Y52" s="28"/>
+      <c r="Z52" s="28"/>
+      <c r="AA52" s="28"/>
+      <c r="AB52" s="30">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="38"/>
-      <c r="B53" s="62" t="s">
-        <v>77</v>
-      </c>
-      <c r="C53" s="30"/>
-      <c r="D53" s="63"/>
-      <c r="E53" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="F53" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="G53" s="27" t="e">
-        <f t="array" ref="G53">_xlfn.IFS(F53="Estatutário","Estatutário",F53="Outro","Outro",F53="Substituto","Outro",F53="Visitante","Outro")</f>
-        <v>#N/A</v>
+      <c r="B53" s="38"/>
+      <c r="C53" s="62" t="s">
+        <v>77</v>
+      </c>
+      <c r="D53" s="30"/>
+      <c r="E53" s="63"/>
+      <c r="F53" s="63"/>
+      <c r="G53" s="26" t="s">
+        <v>77</v>
       </c>
       <c r="H53" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="I53" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="J53" s="28" t="e">
+      <c r="I53" s="27" t="e">
+        <f t="array" ref="I53">_xlfn.IFS(H53="Estatutário","Estatutário",H53="Outro","Outro",H53="Substituto","Outro",H53="Visitante","Outro")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J53" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="K53" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="L53" s="28" t="e">
         <f t="shared" ca="1" si="10"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K53" s="29"/>
-      <c r="L53" s="29"/>
       <c r="M53" s="29"/>
-      <c r="N53" s="28"/>
-      <c r="O53" s="28"/>
-      <c r="P53" s="28"/>
+      <c r="N53" s="29"/>
+      <c r="O53" s="29"/>
+      <c r="P53" s="29"/>
       <c r="Q53" s="28"/>
       <c r="R53" s="28"/>
       <c r="S53" s="28"/>
@@ -4230,44 +4417,47 @@
       <c r="V53" s="28"/>
       <c r="W53" s="28"/>
       <c r="X53" s="28"/>
-      <c r="Y53" s="30">
+      <c r="Y53" s="28"/>
+      <c r="Z53" s="28"/>
+      <c r="AA53" s="28"/>
+      <c r="AB53" s="30">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="38"/>
-      <c r="B54" s="62" t="s">
-        <v>77</v>
-      </c>
-      <c r="C54" s="30"/>
-      <c r="D54" s="63"/>
-      <c r="E54" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="F54" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="G54" s="27" t="e">
-        <f t="array" ref="G54">_xlfn.IFS(F54="Estatutário","Estatutário",F54="Outro","Outro",F54="Substituto","Outro",F54="Visitante","Outro")</f>
-        <v>#N/A</v>
+      <c r="B54" s="38"/>
+      <c r="C54" s="62" t="s">
+        <v>77</v>
+      </c>
+      <c r="D54" s="30"/>
+      <c r="E54" s="63"/>
+      <c r="F54" s="63"/>
+      <c r="G54" s="26" t="s">
+        <v>77</v>
       </c>
       <c r="H54" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="I54" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="J54" s="28" t="e">
+      <c r="I54" s="27" t="e">
+        <f t="array" ref="I54">_xlfn.IFS(H54="Estatutário","Estatutário",H54="Outro","Outro",H54="Substituto","Outro",H54="Visitante","Outro")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J54" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="K54" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="L54" s="28" t="e">
         <f t="shared" ca="1" si="10"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K54" s="29"/>
-      <c r="L54" s="29"/>
       <c r="M54" s="29"/>
-      <c r="N54" s="28"/>
-      <c r="O54" s="28"/>
-      <c r="P54" s="28"/>
+      <c r="N54" s="29"/>
+      <c r="O54" s="29"/>
+      <c r="P54" s="29"/>
       <c r="Q54" s="28"/>
       <c r="R54" s="28"/>
       <c r="S54" s="28"/>
@@ -4276,44 +4466,47 @@
       <c r="V54" s="28"/>
       <c r="W54" s="28"/>
       <c r="X54" s="28"/>
-      <c r="Y54" s="30">
+      <c r="Y54" s="28"/>
+      <c r="Z54" s="28"/>
+      <c r="AA54" s="28"/>
+      <c r="AB54" s="30">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:25" s="52" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:28" s="52" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="46"/>
-      <c r="B55" s="62" t="s">
-        <v>77</v>
-      </c>
-      <c r="C55" s="59"/>
-      <c r="D55" s="65"/>
-      <c r="E55" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="F55" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="G55" s="47" t="e">
-        <f t="array" ref="G55">_xlfn.IFS(F55="Estatutário","Estatutário",F55="Outro","Outro",F55="Substituto","Outro",F55="Visitante","Outro")</f>
-        <v>#N/A</v>
+      <c r="B55" s="46"/>
+      <c r="C55" s="62" t="s">
+        <v>77</v>
+      </c>
+      <c r="D55" s="59"/>
+      <c r="E55" s="65"/>
+      <c r="F55" s="65"/>
+      <c r="G55" s="26" t="s">
+        <v>77</v>
       </c>
       <c r="H55" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="I55" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="J55" s="51" t="e">
+      <c r="I55" s="47" t="e">
+        <f t="array" ref="I55">_xlfn.IFS(H55="Estatutário","Estatutário",H55="Outro","Outro",H55="Substituto","Outro",H55="Visitante","Outro")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J55" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="K55" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="L55" s="51" t="e">
         <f t="shared" ca="1" si="10"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K55" s="48"/>
-      <c r="L55" s="48"/>
       <c r="M55" s="48"/>
-      <c r="N55" s="58"/>
-      <c r="O55" s="58"/>
-      <c r="P55" s="58"/>
+      <c r="N55" s="48"/>
+      <c r="O55" s="48"/>
+      <c r="P55" s="48"/>
       <c r="Q55" s="58"/>
       <c r="R55" s="58"/>
       <c r="S55" s="58"/>
@@ -4322,44 +4515,47 @@
       <c r="V55" s="58"/>
       <c r="W55" s="58"/>
       <c r="X55" s="58"/>
-      <c r="Y55" s="50">
+      <c r="Y55" s="58"/>
+      <c r="Z55" s="58"/>
+      <c r="AA55" s="58"/>
+      <c r="AB55" s="50">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A56" s="46"/>
-      <c r="B56" s="62" t="s">
-        <v>77</v>
-      </c>
-      <c r="C56" s="59"/>
-      <c r="D56" s="65"/>
-      <c r="E56" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="F56" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="G56" s="47" t="e">
-        <f t="array" ref="G56">_xlfn.IFS(F56="Estatutário","Estatutário",F56="Outro","Outro",F56="Substituto","Outro",F56="Visitante","Outro")</f>
-        <v>#N/A</v>
+      <c r="B56" s="46"/>
+      <c r="C56" s="62" t="s">
+        <v>77</v>
+      </c>
+      <c r="D56" s="59"/>
+      <c r="E56" s="65"/>
+      <c r="F56" s="65"/>
+      <c r="G56" s="26" t="s">
+        <v>77</v>
       </c>
       <c r="H56" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="I56" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="J56" s="28" t="e">
+      <c r="I56" s="47" t="e">
+        <f t="array" ref="I56">_xlfn.IFS(H56="Estatutário","Estatutário",H56="Outro","Outro",H56="Substituto","Outro",H56="Visitante","Outro")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J56" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="K56" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="L56" s="28" t="e">
         <f t="shared" ca="1" si="10"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K56" s="48"/>
-      <c r="L56" s="48"/>
       <c r="M56" s="48"/>
-      <c r="N56" s="49"/>
-      <c r="O56" s="49"/>
-      <c r="P56" s="49"/>
+      <c r="N56" s="48"/>
+      <c r="O56" s="48"/>
+      <c r="P56" s="48"/>
       <c r="Q56" s="49"/>
       <c r="R56" s="49"/>
       <c r="S56" s="49"/>
@@ -4368,44 +4564,47 @@
       <c r="V56" s="49"/>
       <c r="W56" s="49"/>
       <c r="X56" s="49"/>
-      <c r="Y56" s="30">
+      <c r="Y56" s="49"/>
+      <c r="Z56" s="49"/>
+      <c r="AA56" s="49"/>
+      <c r="AB56" s="30">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A57" s="46"/>
-      <c r="B57" s="62" t="s">
-        <v>77</v>
-      </c>
-      <c r="C57" s="59"/>
-      <c r="D57" s="65"/>
-      <c r="E57" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="F57" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="G57" s="47" t="e">
-        <f t="array" ref="G57">_xlfn.IFS(F57="Estatutário","Estatutário",F57="Outro","Outro",F57="Substituto","Outro",F57="Visitante","Outro")</f>
-        <v>#N/A</v>
+      <c r="B57" s="46"/>
+      <c r="C57" s="62" t="s">
+        <v>77</v>
+      </c>
+      <c r="D57" s="59"/>
+      <c r="E57" s="65"/>
+      <c r="F57" s="65"/>
+      <c r="G57" s="26" t="s">
+        <v>77</v>
       </c>
       <c r="H57" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="I57" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="J57" s="28" t="e">
+      <c r="I57" s="47" t="e">
+        <f t="array" ref="I57">_xlfn.IFS(H57="Estatutário","Estatutário",H57="Outro","Outro",H57="Substituto","Outro",H57="Visitante","Outro")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J57" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="K57" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="L57" s="28" t="e">
         <f t="shared" ca="1" si="10"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K57" s="48"/>
-      <c r="L57" s="48"/>
       <c r="M57" s="48"/>
-      <c r="N57" s="49"/>
-      <c r="O57" s="49"/>
-      <c r="P57" s="49"/>
+      <c r="N57" s="48"/>
+      <c r="O57" s="48"/>
+      <c r="P57" s="48"/>
       <c r="Q57" s="49"/>
       <c r="R57" s="49"/>
       <c r="S57" s="49"/>
@@ -4414,44 +4613,47 @@
       <c r="V57" s="49"/>
       <c r="W57" s="49"/>
       <c r="X57" s="49"/>
-      <c r="Y57" s="30">
+      <c r="Y57" s="49"/>
+      <c r="Z57" s="49"/>
+      <c r="AA57" s="49"/>
+      <c r="AB57" s="30">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="25"/>
-      <c r="B58" s="62" t="s">
-        <v>77</v>
-      </c>
-      <c r="C58" s="60"/>
-      <c r="D58" s="63"/>
-      <c r="E58" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="F58" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="G58" s="27" t="e">
-        <f t="array" ref="G58">_xlfn.IFS(F58="Estatutário","Estatutário",F58="Outro","Outro",F58="Substituto","Outro",F58="Visitante","Outro")</f>
-        <v>#N/A</v>
+      <c r="B58" s="25"/>
+      <c r="C58" s="62" t="s">
+        <v>77</v>
+      </c>
+      <c r="D58" s="60"/>
+      <c r="E58" s="63"/>
+      <c r="F58" s="63"/>
+      <c r="G58" s="26" t="s">
+        <v>77</v>
       </c>
       <c r="H58" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="I58" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="J58" s="28" t="e">
+      <c r="I58" s="27" t="e">
+        <f t="array" ref="I58">_xlfn.IFS(H58="Estatutário","Estatutário",H58="Outro","Outro",H58="Substituto","Outro",H58="Visitante","Outro")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J58" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="K58" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="L58" s="28" t="e">
         <f t="shared" ca="1" si="10"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K58" s="29"/>
-      <c r="L58" s="29"/>
       <c r="M58" s="29"/>
-      <c r="N58" s="28"/>
-      <c r="O58" s="28"/>
-      <c r="P58" s="28"/>
+      <c r="N58" s="29"/>
+      <c r="O58" s="29"/>
+      <c r="P58" s="29"/>
       <c r="Q58" s="28"/>
       <c r="R58" s="28"/>
       <c r="S58" s="28"/>
@@ -4460,44 +4662,47 @@
       <c r="V58" s="28"/>
       <c r="W58" s="28"/>
       <c r="X58" s="28"/>
-      <c r="Y58" s="30">
+      <c r="Y58" s="28"/>
+      <c r="Z58" s="28"/>
+      <c r="AA58" s="28"/>
+      <c r="AB58" s="30">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="25"/>
-      <c r="B59" s="62" t="s">
-        <v>77</v>
-      </c>
-      <c r="C59" s="60"/>
-      <c r="D59" s="63"/>
-      <c r="E59" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="F59" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="G59" s="27" t="e">
-        <f t="array" ref="G59">_xlfn.IFS(F59="Estatutário","Estatutário",F59="Outro","Outro",F59="Substituto","Outro",F59="Visitante","Outro")</f>
-        <v>#N/A</v>
+      <c r="B59" s="25"/>
+      <c r="C59" s="62" t="s">
+        <v>77</v>
+      </c>
+      <c r="D59" s="60"/>
+      <c r="E59" s="63"/>
+      <c r="F59" s="63"/>
+      <c r="G59" s="26" t="s">
+        <v>77</v>
       </c>
       <c r="H59" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="I59" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="J59" s="28" t="e">
+      <c r="I59" s="27" t="e">
+        <f t="array" ref="I59">_xlfn.IFS(H59="Estatutário","Estatutário",H59="Outro","Outro",H59="Substituto","Outro",H59="Visitante","Outro")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J59" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="K59" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="L59" s="28" t="e">
         <f t="shared" ca="1" si="10"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K59" s="29"/>
-      <c r="L59" s="29"/>
       <c r="M59" s="29"/>
-      <c r="N59" s="28"/>
-      <c r="O59" s="28"/>
-      <c r="P59" s="28"/>
+      <c r="N59" s="29"/>
+      <c r="O59" s="29"/>
+      <c r="P59" s="29"/>
       <c r="Q59" s="28"/>
       <c r="R59" s="28"/>
       <c r="S59" s="28"/>
@@ -4506,44 +4711,47 @@
       <c r="V59" s="28"/>
       <c r="W59" s="28"/>
       <c r="X59" s="28"/>
-      <c r="Y59" s="30">
+      <c r="Y59" s="28"/>
+      <c r="Z59" s="28"/>
+      <c r="AA59" s="28"/>
+      <c r="AB59" s="30">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="25"/>
-      <c r="B60" s="62" t="s">
-        <v>77</v>
-      </c>
-      <c r="C60" s="60"/>
-      <c r="D60" s="63"/>
-      <c r="E60" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="F60" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="G60" s="27" t="e">
-        <f t="array" ref="G60">_xlfn.IFS(F60="Estatutário","Estatutário",F60="Outro","Outro",F60="Substituto","Outro",F60="Visitante","Outro")</f>
-        <v>#N/A</v>
+      <c r="B60" s="25"/>
+      <c r="C60" s="62" t="s">
+        <v>77</v>
+      </c>
+      <c r="D60" s="60"/>
+      <c r="E60" s="63"/>
+      <c r="F60" s="63"/>
+      <c r="G60" s="26" t="s">
+        <v>77</v>
       </c>
       <c r="H60" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="I60" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="J60" s="28" t="e">
+      <c r="I60" s="27" t="e">
+        <f t="array" ref="I60">_xlfn.IFS(H60="Estatutário","Estatutário",H60="Outro","Outro",H60="Substituto","Outro",H60="Visitante","Outro")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J60" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="K60" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="L60" s="28" t="e">
         <f t="shared" ca="1" si="10"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K60" s="29"/>
-      <c r="L60" s="29"/>
       <c r="M60" s="29"/>
-      <c r="N60" s="28"/>
-      <c r="O60" s="28"/>
-      <c r="P60" s="28"/>
+      <c r="N60" s="29"/>
+      <c r="O60" s="29"/>
+      <c r="P60" s="29"/>
       <c r="Q60" s="28"/>
       <c r="R60" s="28"/>
       <c r="S60" s="28"/>
@@ -4552,44 +4760,47 @@
       <c r="V60" s="28"/>
       <c r="W60" s="28"/>
       <c r="X60" s="28"/>
-      <c r="Y60" s="30">
+      <c r="Y60" s="28"/>
+      <c r="Z60" s="28"/>
+      <c r="AA60" s="28"/>
+      <c r="AB60" s="30">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="25"/>
-      <c r="B61" s="62" t="s">
-        <v>77</v>
-      </c>
-      <c r="C61" s="60"/>
-      <c r="D61" s="63"/>
-      <c r="E61" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="F61" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="G61" s="27" t="e">
-        <f t="array" ref="G61">_xlfn.IFS(F61="Estatutário","Estatutário",F61="Outro","Outro",F61="Substituto","Outro",F61="Visitante","Outro")</f>
-        <v>#N/A</v>
+      <c r="B61" s="25"/>
+      <c r="C61" s="62" t="s">
+        <v>77</v>
+      </c>
+      <c r="D61" s="60"/>
+      <c r="E61" s="63"/>
+      <c r="F61" s="63"/>
+      <c r="G61" s="26" t="s">
+        <v>77</v>
       </c>
       <c r="H61" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="I61" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="J61" s="28" t="e">
+      <c r="I61" s="27" t="e">
+        <f t="array" ref="I61">_xlfn.IFS(H61="Estatutário","Estatutário",H61="Outro","Outro",H61="Substituto","Outro",H61="Visitante","Outro")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J61" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="K61" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="L61" s="28" t="e">
         <f t="shared" ca="1" si="10"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K61" s="29"/>
-      <c r="L61" s="29"/>
       <c r="M61" s="29"/>
-      <c r="N61" s="28"/>
-      <c r="O61" s="28"/>
-      <c r="P61" s="28"/>
+      <c r="N61" s="29"/>
+      <c r="O61" s="29"/>
+      <c r="P61" s="29"/>
       <c r="Q61" s="28"/>
       <c r="R61" s="28"/>
       <c r="S61" s="28"/>
@@ -4598,44 +4809,47 @@
       <c r="V61" s="28"/>
       <c r="W61" s="28"/>
       <c r="X61" s="28"/>
-      <c r="Y61" s="30">
+      <c r="Y61" s="28"/>
+      <c r="Z61" s="28"/>
+      <c r="AA61" s="28"/>
+      <c r="AB61" s="30">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="25"/>
-      <c r="B62" s="62" t="s">
-        <v>77</v>
-      </c>
-      <c r="C62" s="60"/>
-      <c r="D62" s="63"/>
-      <c r="E62" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="F62" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="G62" s="27" t="e">
-        <f t="array" ref="G62">_xlfn.IFS(F62="Estatutário","Estatutário",F62="Outro","Outro",F62="Substituto","Outro",F62="Visitante","Outro")</f>
-        <v>#N/A</v>
+      <c r="B62" s="25"/>
+      <c r="C62" s="62" t="s">
+        <v>77</v>
+      </c>
+      <c r="D62" s="60"/>
+      <c r="E62" s="63"/>
+      <c r="F62" s="63"/>
+      <c r="G62" s="26" t="s">
+        <v>77</v>
       </c>
       <c r="H62" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="I62" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="J62" s="28" t="e">
+      <c r="I62" s="27" t="e">
+        <f t="array" ref="I62">_xlfn.IFS(H62="Estatutário","Estatutário",H62="Outro","Outro",H62="Substituto","Outro",H62="Visitante","Outro")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J62" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="K62" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="L62" s="28" t="e">
         <f t="shared" ca="1" si="10"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K62" s="29"/>
-      <c r="L62" s="29"/>
       <c r="M62" s="29"/>
-      <c r="N62" s="28"/>
-      <c r="O62" s="28"/>
-      <c r="P62" s="28"/>
+      <c r="N62" s="29"/>
+      <c r="O62" s="29"/>
+      <c r="P62" s="29"/>
       <c r="Q62" s="28"/>
       <c r="R62" s="28"/>
       <c r="S62" s="28"/>
@@ -4644,44 +4858,47 @@
       <c r="V62" s="28"/>
       <c r="W62" s="28"/>
       <c r="X62" s="28"/>
-      <c r="Y62" s="30">
+      <c r="Y62" s="28"/>
+      <c r="Z62" s="28"/>
+      <c r="AA62" s="28"/>
+      <c r="AB62" s="30">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="25"/>
-      <c r="B63" s="63" t="s">
-        <v>77</v>
-      </c>
-      <c r="C63" s="60"/>
-      <c r="D63" s="63"/>
-      <c r="E63" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="F63" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="G63" s="27" t="e">
-        <f t="array" ref="G63">_xlfn.IFS(F63="Estatutário","Estatutário",F63="Outro","Outro",F63="Substituto","Outro",F63="Visitante","Outro")</f>
-        <v>#N/A</v>
+      <c r="B63" s="25"/>
+      <c r="C63" s="63" t="s">
+        <v>77</v>
+      </c>
+      <c r="D63" s="60"/>
+      <c r="E63" s="63"/>
+      <c r="F63" s="63"/>
+      <c r="G63" s="26" t="s">
+        <v>77</v>
       </c>
       <c r="H63" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="I63" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="J63" s="28" t="e">
+      <c r="I63" s="27" t="e">
+        <f t="array" ref="I63">_xlfn.IFS(H63="Estatutário","Estatutário",H63="Outro","Outro",H63="Substituto","Outro",H63="Visitante","Outro")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J63" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="K63" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="L63" s="28" t="e">
         <f t="shared" ca="1" si="10"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K63" s="29"/>
-      <c r="L63" s="29"/>
       <c r="M63" s="29"/>
-      <c r="N63" s="28"/>
-      <c r="O63" s="28"/>
-      <c r="P63" s="28"/>
+      <c r="N63" s="29"/>
+      <c r="O63" s="29"/>
+      <c r="P63" s="29"/>
       <c r="Q63" s="28"/>
       <c r="R63" s="28"/>
       <c r="S63" s="28"/>
@@ -4690,44 +4907,47 @@
       <c r="V63" s="28"/>
       <c r="W63" s="28"/>
       <c r="X63" s="28"/>
-      <c r="Y63" s="30">
+      <c r="Y63" s="28"/>
+      <c r="Z63" s="28"/>
+      <c r="AA63" s="28"/>
+      <c r="AB63" s="30">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="25"/>
-      <c r="B64" s="63" t="s">
-        <v>77</v>
-      </c>
-      <c r="C64" s="60"/>
-      <c r="D64" s="63"/>
-      <c r="E64" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="F64" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="G64" s="27" t="e">
-        <f t="array" ref="G64">_xlfn.IFS(F64="Estatutário","Estatutário",F64="Outro","Outro",F64="Substituto","Outro",F64="Visitante","Outro")</f>
-        <v>#N/A</v>
+      <c r="B64" s="25"/>
+      <c r="C64" s="63" t="s">
+        <v>77</v>
+      </c>
+      <c r="D64" s="60"/>
+      <c r="E64" s="63"/>
+      <c r="F64" s="63"/>
+      <c r="G64" s="26" t="s">
+        <v>77</v>
       </c>
       <c r="H64" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="I64" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="J64" s="28" t="e">
+      <c r="I64" s="27" t="e">
+        <f t="array" ref="I64">_xlfn.IFS(H64="Estatutário","Estatutário",H64="Outro","Outro",H64="Substituto","Outro",H64="Visitante","Outro")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J64" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="K64" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="L64" s="28" t="e">
         <f t="shared" ca="1" si="10"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K64" s="29"/>
-      <c r="L64" s="29"/>
       <c r="M64" s="29"/>
-      <c r="N64" s="28"/>
-      <c r="O64" s="28"/>
-      <c r="P64" s="28"/>
+      <c r="N64" s="29"/>
+      <c r="O64" s="29"/>
+      <c r="P64" s="29"/>
       <c r="Q64" s="28"/>
       <c r="R64" s="28"/>
       <c r="S64" s="28"/>
@@ -4736,44 +4956,47 @@
       <c r="V64" s="28"/>
       <c r="W64" s="28"/>
       <c r="X64" s="28"/>
-      <c r="Y64" s="30">
+      <c r="Y64" s="28"/>
+      <c r="Z64" s="28"/>
+      <c r="AA64" s="28"/>
+      <c r="AB64" s="30">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="25"/>
-      <c r="B65" s="63" t="s">
-        <v>77</v>
-      </c>
-      <c r="C65" s="60"/>
-      <c r="D65" s="63"/>
-      <c r="E65" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="F65" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="G65" s="27" t="e">
-        <f t="array" ref="G65">_xlfn.IFS(F65="Estatutário","Estatutário",F65="Outro","Outro",F65="Substituto","Outro",F65="Visitante","Outro")</f>
-        <v>#N/A</v>
+      <c r="B65" s="25"/>
+      <c r="C65" s="63" t="s">
+        <v>77</v>
+      </c>
+      <c r="D65" s="60"/>
+      <c r="E65" s="63"/>
+      <c r="F65" s="63"/>
+      <c r="G65" s="26" t="s">
+        <v>77</v>
       </c>
       <c r="H65" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="I65" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="J65" s="28" t="e">
+      <c r="I65" s="27" t="e">
+        <f t="array" ref="I65">_xlfn.IFS(H65="Estatutário","Estatutário",H65="Outro","Outro",H65="Substituto","Outro",H65="Visitante","Outro")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J65" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="K65" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="L65" s="28" t="e">
         <f t="shared" ca="1" si="10"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K65" s="29"/>
-      <c r="L65" s="29"/>
       <c r="M65" s="29"/>
-      <c r="N65" s="28"/>
-      <c r="O65" s="28"/>
-      <c r="P65" s="28"/>
+      <c r="N65" s="29"/>
+      <c r="O65" s="29"/>
+      <c r="P65" s="29"/>
       <c r="Q65" s="28"/>
       <c r="R65" s="28"/>
       <c r="S65" s="28"/>
@@ -4782,46 +5005,52 @@
       <c r="V65" s="28"/>
       <c r="W65" s="28"/>
       <c r="X65" s="28"/>
-      <c r="Y65" s="30">
+      <c r="Y65" s="28"/>
+      <c r="Z65" s="28"/>
+      <c r="AA65" s="28"/>
+      <c r="AB65" s="30">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="F2:F3"/>
+  <mergeCells count="21">
+    <mergeCell ref="AB2:AB3"/>
+    <mergeCell ref="Q1:W1"/>
+    <mergeCell ref="X1:AA1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
     <mergeCell ref="G2:G3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="N2:N3"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="I2:I3"/>
     <mergeCell ref="J2:J3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="N2:T2"/>
-    <mergeCell ref="U2:X2"/>
-    <mergeCell ref="Y2:Y3"/>
-    <mergeCell ref="N1:T1"/>
-    <mergeCell ref="U1:X1"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="Q2:W2"/>
+    <mergeCell ref="X2:AA2"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation type="list" showErrorMessage="1" error="Escolha uma das opções cadastradas acionando a seta ao lado da célula. _x000a_Os únicos títulos acadêmicos válidos são graduação, especialização, mestrado e doutorado." sqref="E4:E65" xr:uid="{14D59253-AAE5-3648-B265-D8BB8088BFDE}">
+    <dataValidation type="list" showErrorMessage="1" error="Escolha uma das opções cadastradas acionando a seta ao lado da célula. _x000a_Os únicos títulos acadêmicos válidos são graduação, especialização, mestrado e doutorado." sqref="G4:G65" xr:uid="{14D59253-AAE5-3648-B265-D8BB8088BFDE}">
       <formula1>"...,Graduação,Especialização,Mestrado,Doutorado"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Escolha uma das opções já cadastradas usando a seta ao lado da célula" sqref="H4:I65" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Escolha uma das opções já cadastradas usando a seta ao lado da célula" sqref="J4:K65" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"...,DE,40h,20h"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" showErrorMessage="1" error="Escolha uma das opções cadastradas acionando a seta ao lado da célula. _x000a_Obs.: Pós-doutorado não é título acadêmico. " sqref="F4:F65" xr:uid="{8C2AB865-84D8-F042-B8C7-EB28B37094AD}">
+    <dataValidation type="list" showErrorMessage="1" error="Escolha uma das opções cadastradas acionando a seta ao lado da célula. _x000a_Obs.: Pós-doutorado não é título acadêmico. " sqref="H4:H65" xr:uid="{8C2AB865-84D8-F042-B8C7-EB28B37094AD}">
       <formula1>"...,Estatutário,Substituto,Visitante,Outro"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B4:B65" xr:uid="{00000000-0002-0000-0100-000003000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C4:C65" xr:uid="{00000000-0002-0000-0100-000003000000}">
       <formula1>"...,Docente,Tutor,Docente e tutor"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -4850,10 +5079,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C1" s="95" t="s">
+      <c r="C1" s="98" t="s">
         <v>78</v>
       </c>
-      <c r="D1" s="95"/>
+      <c r="D1" s="98"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C2" t="s">
@@ -4864,7 +5093,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="96" t="s">
+      <c r="A3" s="99" t="s">
         <v>81</v>
       </c>
       <c r="B3" s="31">
@@ -4878,7 +5107,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="96"/>
+      <c r="A4" s="99"/>
       <c r="B4" s="31">
         <v>2</v>
       </c>
@@ -4890,7 +5119,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="96"/>
+      <c r="A5" s="99"/>
       <c r="B5" s="31">
         <v>3</v>
       </c>
@@ -4902,7 +5131,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="96"/>
+      <c r="A6" s="99"/>
       <c r="B6" s="31">
         <v>4</v>
       </c>
@@ -4914,7 +5143,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="96"/>
+      <c r="A7" s="99"/>
       <c r="B7" s="31">
         <v>5</v>
       </c>
@@ -4926,7 +5155,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="96"/>
+      <c r="A8" s="99"/>
       <c r="B8" s="31">
         <v>6</v>
       </c>
@@ -4938,7 +5167,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="96"/>
+      <c r="A9" s="99"/>
       <c r="B9" s="31">
         <v>7</v>
       </c>
@@ -4950,7 +5179,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="96"/>
+      <c r="A10" s="99"/>
       <c r="B10" s="31">
         <v>8</v>
       </c>
@@ -4962,7 +5191,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="96"/>
+      <c r="A11" s="99"/>
       <c r="B11" s="31">
         <v>9</v>
       </c>
@@ -4974,7 +5203,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="96"/>
+      <c r="A12" s="99"/>
       <c r="B12" s="31">
         <v>10</v>
       </c>
@@ -4986,7 +5215,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="96"/>
+      <c r="A13" s="99"/>
       <c r="B13" s="31">
         <v>11</v>
       </c>
@@ -4998,7 +5227,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="96"/>
+      <c r="A14" s="99"/>
       <c r="B14" s="31">
         <v>12</v>
       </c>
@@ -5010,7 +5239,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="96"/>
+      <c r="A15" s="99"/>
       <c r="B15" s="31">
         <v>13</v>
       </c>
@@ -5022,7 +5251,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="96"/>
+      <c r="A16" s="99"/>
       <c r="B16" s="31">
         <v>14</v>
       </c>
@@ -5034,7 +5263,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="96"/>
+      <c r="A17" s="99"/>
       <c r="B17" s="31">
         <v>15</v>
       </c>
@@ -5046,7 +5275,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="96"/>
+      <c r="A18" s="99"/>
       <c r="B18" s="31">
         <v>16</v>
       </c>
@@ -5058,7 +5287,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="96"/>
+      <c r="A19" s="99"/>
       <c r="B19" s="31">
         <v>17</v>
       </c>
@@ -5070,7 +5299,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="96"/>
+      <c r="A20" s="99"/>
       <c r="B20" s="31">
         <v>18</v>
       </c>
@@ -5082,7 +5311,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="96"/>
+      <c r="A21" s="99"/>
       <c r="B21" s="31">
         <v>19</v>
       </c>
@@ -5094,7 +5323,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="96"/>
+      <c r="A22" s="99"/>
       <c r="B22" s="31">
         <v>20</v>
       </c>
@@ -5106,7 +5335,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="96"/>
+      <c r="A23" s="99"/>
       <c r="B23" s="31">
         <v>21</v>
       </c>
@@ -5115,7 +5344,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="96"/>
+      <c r="A24" s="99"/>
       <c r="B24" s="31">
         <v>22</v>
       </c>
@@ -5124,7 +5353,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="96"/>
+      <c r="A25" s="99"/>
       <c r="B25" s="31">
         <v>23</v>
       </c>
@@ -5133,7 +5362,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="96"/>
+      <c r="A26" s="99"/>
       <c r="B26" s="31">
         <v>24</v>
       </c>
@@ -5142,7 +5371,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="96"/>
+      <c r="A27" s="99"/>
       <c r="B27" s="31">
         <v>25</v>
       </c>
@@ -5151,7 +5380,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="96"/>
+      <c r="A28" s="99"/>
       <c r="B28" s="31">
         <v>26</v>
       </c>
@@ -5160,7 +5389,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="96"/>
+      <c r="A29" s="99"/>
       <c r="B29" s="31">
         <v>27</v>
       </c>
@@ -5169,7 +5398,7 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="96"/>
+      <c r="A30" s="99"/>
       <c r="B30" s="31">
         <v>28</v>
       </c>
@@ -5178,7 +5407,7 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="96"/>
+      <c r="A31" s="99"/>
       <c r="B31" s="31">
         <v>29</v>
       </c>
@@ -5187,7 +5416,7 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="96"/>
+      <c r="A32" s="99"/>
       <c r="B32" s="31">
         <v>30</v>
       </c>
@@ -5196,7 +5425,7 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="96"/>
+      <c r="A33" s="99"/>
       <c r="B33" s="31">
         <v>31</v>
       </c>
@@ -5205,7 +5434,7 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="96"/>
+      <c r="A34" s="99"/>
       <c r="B34" s="31">
         <v>32</v>
       </c>
@@ -5214,7 +5443,7 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="96"/>
+      <c r="A35" s="99"/>
       <c r="B35" s="31">
         <v>33</v>
       </c>
@@ -5223,7 +5452,7 @@
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="96"/>
+      <c r="A36" s="99"/>
       <c r="B36" s="31">
         <v>34</v>
       </c>
@@ -5232,7 +5461,7 @@
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="96"/>
+      <c r="A37" s="99"/>
       <c r="B37" s="31">
         <v>35</v>
       </c>
@@ -5241,7 +5470,7 @@
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="96"/>
+      <c r="A38" s="99"/>
       <c r="B38" s="31">
         <v>36</v>
       </c>
@@ -5250,7 +5479,7 @@
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" s="96"/>
+      <c r="A39" s="99"/>
       <c r="B39" s="31">
         <v>37</v>
       </c>
@@ -5259,7 +5488,7 @@
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" s="96"/>
+      <c r="A40" s="99"/>
       <c r="B40" s="31">
         <v>38</v>
       </c>
@@ -5268,7 +5497,7 @@
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" s="96"/>
+      <c r="A41" s="99"/>
       <c r="B41" s="31">
         <v>39</v>
       </c>
@@ -5277,7 +5506,7 @@
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" s="96"/>
+      <c r="A42" s="99"/>
       <c r="B42" s="31">
         <v>40</v>
       </c>
@@ -5326,7 +5555,7 @@
         <v>88</v>
       </c>
       <c r="B2" s="36">
-        <f>COUNTA('Dados docentes'!C4:C65)</f>
+        <f>COUNTA('Dados docentes'!D4:D65)</f>
         <v>0</v>
       </c>
       <c r="C2" s="36"/>
@@ -5336,7 +5565,7 @@
         <v>89</v>
       </c>
       <c r="B3" s="36">
-        <f>COUNTIFS('Dados docentes'!$C$4:$C$65,"&gt;0",'Dados docentes'!$Y$4:$Y$65,"0")</f>
+        <f>COUNTIFS('Dados docentes'!$D$4:$D$65,"&gt;0",'Dados docentes'!$AB$4:$AB$65,"0")</f>
         <v>0</v>
       </c>
       <c r="C3" s="37" t="e">
@@ -5349,7 +5578,7 @@
         <v>90</v>
       </c>
       <c r="B4" s="36">
-        <f>COUNTIFS('Dados docentes'!$C$4:$C$65,"&gt;0",'Dados docentes'!$Y$4:$Y$65,"&gt;=1")</f>
+        <f>COUNTIFS('Dados docentes'!$D$4:$D$65,"&gt;0",'Dados docentes'!$AB$4:$AB$65,"&gt;=1")</f>
         <v>0</v>
       </c>
       <c r="C4" s="37" t="e">
@@ -5362,7 +5591,7 @@
         <v>91</v>
       </c>
       <c r="B5" s="36">
-        <f>COUNTIFS('Dados docentes'!$C$4:$C$65,"&gt;0",'Dados docentes'!$Y$4:$Y$65,"&gt;=4")</f>
+        <f>COUNTIFS('Dados docentes'!$D$4:$D$65,"&gt;0",'Dados docentes'!$AB$4:$AB$65,"&gt;=4")</f>
         <v>0</v>
       </c>
       <c r="C5" s="37" t="e">
@@ -5375,7 +5604,7 @@
         <v>92</v>
       </c>
       <c r="B6" s="36">
-        <f>COUNTIFS('Dados docentes'!$C$4:$C$65,"&gt;0",'Dados docentes'!$Y$4:$Y$65,"&gt;=7")</f>
+        <f>COUNTIFS('Dados docentes'!$D$4:$D$65,"&gt;0",'Dados docentes'!$AB$4:$AB$65,"&gt;=7")</f>
         <v>0</v>
       </c>
       <c r="C6" s="37" t="e">
@@ -5388,7 +5617,7 @@
         <v>93</v>
       </c>
       <c r="B7" s="36">
-        <f>COUNTIFS('Dados docentes'!$C$4:$C$65,"&gt;0",'Dados docentes'!$Y$4:$Y$65,"&gt;=9")</f>
+        <f>COUNTIFS('Dados docentes'!$D$4:$D$65,"&gt;0",'Dados docentes'!$AB$4:$AB$65,"&gt;=9")</f>
         <v>0</v>
       </c>
       <c r="C7" s="37" t="e">
